--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_4_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_4_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1352493.408689057</v>
+        <v>1322311.172538932</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>625948.6630396481</v>
+        <v>625948.6630396493</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5996855.681156759</v>
+        <v>5996855.681156756</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>257.015284641129</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>93.46210168103329</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553082</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>12.30347489665841</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>18.7734042169175</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>117.8916520813108</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>177.2926684532973</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>30.54110646053108</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>80.88877949312982</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>328.3502413085465</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>324.4964282009516</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>30.54110646053131</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>122.3991365428352</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>5.363399827271436</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1426,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>16.60557849018839</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>86.85904583823137</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>281.7170166114086</v>
+        <v>263.3364023249807</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V16" t="n">
-        <v>156.1271626621473</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>398.0313798843944</v>
+        <v>369.2930154140631</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -1891,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>156.1271626621472</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>157.1894096127083</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>398.6102402685877</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>128.7835007017903</v>
+        <v>10.43941339835968</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,25 +2320,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>307.2065092331155</v>
       </c>
       <c r="D23" t="n">
-        <v>13.68906337707</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>413.2106022137938</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I23" t="n">
-        <v>129.8188433654458</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>18.44902381826984</v>
+        <v>18.44902381826981</v>
       </c>
       <c r="S23" t="n">
-        <v>161.3455364069307</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2417,7 +2417,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I24" t="n">
-        <v>50.85619463218988</v>
+        <v>50.85619463218986</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>30.6573954989677</v>
+        <v>30.65739549896769</v>
       </c>
       <c r="S24" t="n">
         <v>150.8909729053132</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2678406362081</v>
+        <v>114.1158076895348</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>53.557622442364</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>278.406274681187</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>18.44902381826981</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T26" t="n">
         <v>213.9375272825098</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>205.6049569231522</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I27" t="n">
-        <v>50.85619463218988</v>
+        <v>50.85619463218986</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>30.6573954989677</v>
+        <v>30.65739549896769</v>
       </c>
       <c r="S27" t="n">
         <v>150.8909729053132</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>142.5728023742849</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>223.9358063394608</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>210.255989658398</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.2106022137938</v>
+        <v>5.128441392934358</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>129.8188433654458</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,22 +2839,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>18.44902381826984</v>
+        <v>18.44902381826981</v>
       </c>
       <c r="S29" t="n">
-        <v>161.3455364069307</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T29" t="n">
-        <v>37.28165451240609</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U29" t="n">
         <v>251.1782820837292</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2891,7 +2891,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I30" t="n">
-        <v>50.85619463218988</v>
+        <v>50.85619463218986</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>30.6573954989677</v>
+        <v>30.65739549896769</v>
       </c>
       <c r="S30" t="n">
         <v>150.8909729053132</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>153.8834111013403</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>107.9047124225452</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>223.9358063394608</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>121.2408097264771</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3037,16 +3037,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>244.9371084420892</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>18.44902381826981</v>
       </c>
       <c r="S32" t="n">
-        <v>161.3455364069307</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>244.828185147818</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3128,7 +3128,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I33" t="n">
-        <v>50.85619463218988</v>
+        <v>50.85619463218986</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>30.6573954989677</v>
+        <v>30.65739549896769</v>
       </c>
       <c r="S33" t="n">
         <v>150.8909729053132</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.8834111013403</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3231,31 +3231,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>7.57882616418884</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>135.0968229573668</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>183.3554385456974</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>193.5464728683679</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3268,10 +3268,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3283,10 +3283,10 @@
         <v>413.2106022137938</v>
       </c>
       <c r="H35" t="n">
-        <v>202.3750727744887</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>129.8188433654458</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,22 +3313,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>18.44902381826984</v>
+        <v>18.44902381826981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>207.7893348019851</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3365,7 +3365,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I36" t="n">
-        <v>50.85619463218988</v>
+        <v>50.85619463218986</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>30.6573954989677</v>
+        <v>30.65739549896769</v>
       </c>
       <c r="S36" t="n">
         <v>150.8909729053132</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>207.661801906612</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>53.55762244236377</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>46.6980139093093</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>129.8188433654458</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,22 +3550,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>18.44902381826981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>204.7496483729769</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>229.3058559250368</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3602,7 +3602,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I39" t="n">
-        <v>50.85619463218988</v>
+        <v>50.85619463218986</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>30.6573954989677</v>
+        <v>30.65739549896769</v>
       </c>
       <c r="S39" t="n">
         <v>150.8909729053132</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>135.0968229573668</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>223.9358063394608</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>116.1448144394938</v>
+        <v>37.67612063459799</v>
       </c>
     </row>
     <row r="41">
@@ -3745,19 +3745,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>182.2389725323063</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H41" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>18.44902381826981</v>
       </c>
       <c r="S41" t="n">
-        <v>24.35227477675845</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3839,7 +3839,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I42" t="n">
-        <v>50.85619463218988</v>
+        <v>50.85619463218986</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>30.6573954989677</v>
+        <v>30.65739549896769</v>
       </c>
       <c r="S42" t="n">
         <v>150.8909729053132</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>207.661801906612</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>158.5916491067505</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1158076895348</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3982,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3994,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>129.8188433654458</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>18.44902381826981</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>4.576574036815991</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U44" t="n">
         <v>251.1782820837292</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>80.28814407750613</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I45" t="n">
-        <v>50.85619463218988</v>
+        <v>50.85619463218986</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>30.6573954989677</v>
+        <v>30.65739549896769</v>
       </c>
       <c r="S45" t="n">
         <v>150.8909729053132</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>147.9239553616508</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>45.78894203742831</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2255.520561484595</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C2" t="n">
-        <v>1886.558044544183</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D2" t="n">
-        <v>1528.292345937432</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>1142.504093339188</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>731.5181885495806</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>313.5543804477675</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4360,22 +4360,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2547.714238234541</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2293.952452872632</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1962.889565529061</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="X2" t="n">
-        <v>2642.120401548716</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="Y2" t="n">
-        <v>2642.120401548716</v>
+        <v>1610.120910258947</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170839</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359569</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747056</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692501</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961351</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424012</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517454</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537798</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152627</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167583</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207639</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002106</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>438.7118141694739</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C4" t="n">
-        <v>269.775631241567</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D4" t="n">
-        <v>269.775631241567</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="E4" t="n">
-        <v>269.775631241567</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="F4" t="n">
-        <v>257.3478788206999</v>
+        <v>230.6543889503772</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788206999</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694739</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694739</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.7118141694739</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>882.8926947117852</v>
+        <v>1078.595463490097</v>
       </c>
       <c r="C5" t="n">
-        <v>882.8926947117852</v>
+        <v>1078.595463490097</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>1078.595463490097</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500978</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2033.097625012799</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>2033.097625012799</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X5" t="n">
-        <v>1659.631866751719</v>
+        <v>1465.195303554219</v>
       </c>
       <c r="Y5" t="n">
-        <v>1269.492534775907</v>
+        <v>1465.195303554219</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>617.0062271882081</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>327.5890571512475</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1995.909162857192</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>406.4787970436502</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2369.374921118272</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>2369.374921118272</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>1995.909162857192</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y8" t="n">
-        <v>1995.909162857192</v>
+        <v>764.7444956504007</v>
       </c>
     </row>
     <row r="9">
@@ -4859,55 +4859,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4995,19 +4995,19 @@
         <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>575.076573602647</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>320.3920853967602</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>320.3920853967602</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>320.3920853967602</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1954.141365880777</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="C11" t="n">
-        <v>1954.141365880777</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="D11" t="n">
-        <v>1595.875667274027</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E11" t="n">
-        <v>1210.087414675782</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F11" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
         <v>53.94298182036445</v>
@@ -5041,19 +5041,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K11" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2691.73151543512</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2691.73151543512</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2691.73151543512</v>
       </c>
       <c r="U11" t="n">
-        <v>2680.375779411972</v>
+        <v>2691.73151543512</v>
       </c>
       <c r="V11" t="n">
-        <v>2680.375779411972</v>
+        <v>2360.668628091549</v>
       </c>
       <c r="W11" t="n">
-        <v>2327.607124141857</v>
+        <v>2007.899972821435</v>
       </c>
       <c r="X11" t="n">
-        <v>1954.141365880777</v>
+        <v>1634.434214560355</v>
       </c>
       <c r="Y11" t="n">
-        <v>1954.141365880777</v>
+        <v>1244.294882584544</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
@@ -5126,10 +5126,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
         <v>1748.695370517453</v>
@@ -5141,22 +5141,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>291.7960311703076</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>291.7960311703076</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>141.6793917579719</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>141.6793917579719</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>141.6793917579719</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
         <v>53.94298182036445</v>
@@ -5232,19 +5232,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V13" t="n">
-        <v>473.4444960005474</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W13" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X13" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y13" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1167.455337753612</v>
+        <v>1611.619444146874</v>
       </c>
       <c r="C14" t="n">
-        <v>1167.455337753612</v>
+        <v>1242.656927206462</v>
       </c>
       <c r="D14" t="n">
-        <v>1167.455337753612</v>
+        <v>884.3912285997114</v>
       </c>
       <c r="E14" t="n">
-        <v>1167.455337753612</v>
+        <v>884.3912285997114</v>
       </c>
       <c r="F14" t="n">
-        <v>756.4694329640045</v>
+        <v>473.4053238101039</v>
       </c>
       <c r="G14" t="n">
-        <v>338.5056248621913</v>
+        <v>473.4053238101039</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U14" t="n">
-        <v>2224.752638628377</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V14" t="n">
-        <v>1893.689751284806</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W14" t="n">
-        <v>1540.921096014692</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X14" t="n">
-        <v>1167.455337753612</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y14" t="n">
-        <v>1167.455337753612</v>
+        <v>1998.219284210995</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018223</v>
@@ -5466,13 +5466,13 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U16" t="n">
-        <v>211.6471865296041</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036445</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W16" t="n">
         <v>53.94298182036445</v>
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1194.175505447095</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="C17" t="n">
-        <v>1194.175505447095</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="D17" t="n">
-        <v>1194.175505447095</v>
+        <v>754.1609496773547</v>
       </c>
       <c r="E17" t="n">
-        <v>1194.175505447095</v>
+        <v>754.1609496773547</v>
       </c>
       <c r="F17" t="n">
-        <v>783.1896006574873</v>
+        <v>754.1609496773547</v>
       </c>
       <c r="G17" t="n">
         <v>381.1377017843616</v>
@@ -5521,7 +5521,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W17" t="n">
-        <v>2344.380435748108</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X17" t="n">
-        <v>1970.914677487028</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y17" t="n">
-        <v>1580.775345511217</v>
+        <v>1112.426648284105</v>
       </c>
     </row>
     <row r="18">
@@ -5594,16 +5594,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
         <v>1748.695370517453</v>
@@ -5700,19 +5700,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X19" t="n">
         <v>53.94298182036445</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1611.619444146874</v>
+        <v>1345.623078162045</v>
       </c>
       <c r="C20" t="n">
-        <v>1611.619444146874</v>
+        <v>976.6605612216329</v>
       </c>
       <c r="D20" t="n">
-        <v>1253.353745540123</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="E20" t="n">
-        <v>867.5654929418788</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F20" t="n">
-        <v>456.5795881522712</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
@@ -5779,25 +5779,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U20" t="n">
-        <v>2388.358616186807</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V20" t="n">
-        <v>2388.358616186807</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W20" t="n">
-        <v>2388.358616186807</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X20" t="n">
-        <v>2388.358616186807</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="Y20" t="n">
-        <v>1998.219284210995</v>
+        <v>1504.400259589023</v>
       </c>
     </row>
     <row r="21">
@@ -5834,13 +5834,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
         <v>1748.695370517453</v>
@@ -5940,22 +5940,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U22" t="n">
-        <v>598.0446400632119</v>
+        <v>490.2759348564911</v>
       </c>
       <c r="V22" t="n">
-        <v>343.360151857325</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W22" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1795.280899163273</v>
+        <v>1860.211634576879</v>
       </c>
       <c r="C23" t="n">
-        <v>1426.318382222862</v>
+        <v>1549.902029290904</v>
       </c>
       <c r="D23" t="n">
-        <v>1412.491045478347</v>
+        <v>1191.636330684153</v>
       </c>
       <c r="E23" t="n">
-        <v>1026.702792880102</v>
+        <v>805.8480780859089</v>
       </c>
       <c r="F23" t="n">
-        <v>615.7168880904949</v>
+        <v>805.8480780859089</v>
       </c>
       <c r="G23" t="n">
-        <v>198.3324414098951</v>
+        <v>388.4636314053091</v>
       </c>
       <c r="H23" t="n">
-        <v>198.3324414098951</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="I23" t="n">
-        <v>67.20229659631349</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="J23" t="n">
-        <v>231.1641949821403</v>
+        <v>231.1641949821404</v>
       </c>
       <c r="K23" t="n">
-        <v>597.645382172675</v>
+        <v>597.6453821726751</v>
       </c>
       <c r="L23" t="n">
         <v>1104.574328908085</v>
       </c>
       <c r="M23" t="n">
-        <v>1685.237002375317</v>
+        <v>1685.237002375316</v>
       </c>
       <c r="N23" t="n">
         <v>2260.66340741757</v>
       </c>
       <c r="O23" t="n">
-        <v>2758.834606696546</v>
+        <v>2758.834606696547</v>
       </c>
       <c r="P23" t="n">
         <v>3146.337816775582</v>
@@ -6013,28 +6013,28 @@
         <v>3360.114829815675</v>
       </c>
       <c r="R23" t="n">
-        <v>3341.479452221462</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="S23" t="n">
-        <v>3178.504162921532</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="T23" t="n">
-        <v>3178.504162921532</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="U23" t="n">
-        <v>2924.788726473321</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="V23" t="n">
-        <v>2924.788726473321</v>
+        <v>3010.416564877892</v>
       </c>
       <c r="W23" t="n">
-        <v>2572.020071203207</v>
+        <v>3010.416564877892</v>
       </c>
       <c r="X23" t="n">
-        <v>2572.020071203207</v>
+        <v>2636.950806616812</v>
       </c>
       <c r="Y23" t="n">
-        <v>2181.880739227395</v>
+        <v>2246.811474641001</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>118.572190164182</v>
       </c>
       <c r="I24" t="n">
-        <v>67.20229659631349</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="J24" t="n">
-        <v>67.20229659631349</v>
+        <v>171.1635003404554</v>
       </c>
       <c r="K24" t="n">
-        <v>109.6888109643149</v>
+        <v>475.4705993509097</v>
       </c>
       <c r="L24" t="n">
-        <v>580.2716556992011</v>
+        <v>946.0534440857959</v>
       </c>
       <c r="M24" t="n">
-        <v>1181.398861186278</v>
+        <v>1394.425341114752</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.143128480229</v>
+        <v>1552.620657808586</v>
       </c>
       <c r="O24" t="n">
-        <v>2326.564838176615</v>
+        <v>2065.042367504972</v>
       </c>
       <c r="P24" t="n">
-        <v>2667.279412613341</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q24" t="n">
         <v>2670.157851783212</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2472.755128059118</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="C25" t="n">
-        <v>2472.755128059118</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="D25" t="n">
-        <v>2472.755128059118</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="E25" t="n">
-        <v>2472.755128059118</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="F25" t="n">
-        <v>2472.755128059118</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="G25" t="n">
-        <v>2472.755128059118</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="H25" t="n">
-        <v>2472.755128059118</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="I25" t="n">
-        <v>2472.755128059118</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="J25" t="n">
-        <v>2472.755128059118</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="K25" t="n">
-        <v>2558.649985611871</v>
+        <v>153.097154149067</v>
       </c>
       <c r="L25" t="n">
-        <v>2724.092265317942</v>
+        <v>318.539433855138</v>
       </c>
       <c r="M25" t="n">
-        <v>2908.917075643208</v>
+        <v>503.3642441804033</v>
       </c>
       <c r="N25" t="n">
-        <v>3094.781781504555</v>
+        <v>689.2289500417501</v>
       </c>
       <c r="O25" t="n">
-        <v>3250.4416249274</v>
+        <v>844.8887934645954</v>
       </c>
       <c r="P25" t="n">
-        <v>3360.114829815675</v>
+        <v>954.56199835287</v>
       </c>
       <c r="Q25" t="n">
-        <v>3360.114829815675</v>
+        <v>954.56199835287</v>
       </c>
       <c r="R25" t="n">
-        <v>3360.114829815675</v>
+        <v>954.56199835287</v>
       </c>
       <c r="S25" t="n">
-        <v>3360.114829815675</v>
+        <v>954.56199835287</v>
       </c>
       <c r="T25" t="n">
-        <v>3360.114829815675</v>
+        <v>954.56199835287</v>
       </c>
       <c r="U25" t="n">
-        <v>3070.955394829606</v>
+        <v>839.2935057371783</v>
       </c>
       <c r="V25" t="n">
-        <v>2816.270906623719</v>
+        <v>584.6090175312914</v>
       </c>
       <c r="W25" t="n">
-        <v>2526.853736586758</v>
+        <v>295.1918474943308</v>
       </c>
       <c r="X25" t="n">
-        <v>2472.755128059118</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="Y25" t="n">
-        <v>2472.755128059118</v>
+        <v>67.2022965963135</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2329.850451020923</v>
+        <v>1128.369177600259</v>
       </c>
       <c r="C26" t="n">
-        <v>1960.887934080511</v>
+        <v>759.4066606598474</v>
       </c>
       <c r="D26" t="n">
-        <v>1602.622235473761</v>
+        <v>759.4066606598474</v>
       </c>
       <c r="E26" t="n">
-        <v>1216.833982875517</v>
+        <v>478.188201385921</v>
       </c>
       <c r="F26" t="n">
-        <v>805.8480780859089</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="G26" t="n">
-        <v>388.4636314053091</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="H26" t="n">
         <v>67.2022965963135</v>
@@ -6226,10 +6226,10 @@
         <v>67.2022965963135</v>
       </c>
       <c r="J26" t="n">
-        <v>231.1641949821405</v>
+        <v>231.1641949821403</v>
       </c>
       <c r="K26" t="n">
-        <v>597.6453821726752</v>
+        <v>597.645382172675</v>
       </c>
       <c r="L26" t="n">
         <v>1104.574328908085</v>
@@ -6250,28 +6250,28 @@
         <v>3360.114829815675</v>
       </c>
       <c r="R26" t="n">
-        <v>3360.114829815675</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="S26" t="n">
-        <v>3360.114829815675</v>
+        <v>3178.504162921533</v>
       </c>
       <c r="T26" t="n">
-        <v>3144.016317409099</v>
+        <v>2962.405650514957</v>
       </c>
       <c r="U26" t="n">
-        <v>2890.300880960888</v>
+        <v>2962.405650514957</v>
       </c>
       <c r="V26" t="n">
-        <v>2682.619106291037</v>
+        <v>2631.342763171387</v>
       </c>
       <c r="W26" t="n">
-        <v>2329.850451020923</v>
+        <v>2278.574107901272</v>
       </c>
       <c r="X26" t="n">
-        <v>2329.850451020923</v>
+        <v>1905.108349640193</v>
       </c>
       <c r="Y26" t="n">
-        <v>2329.850451020923</v>
+        <v>1514.969017664381</v>
       </c>
     </row>
     <row r="27">
@@ -6296,34 +6296,34 @@
         <v>358.6212903526892</v>
       </c>
       <c r="G27" t="n">
-        <v>221.0211629876735</v>
+        <v>221.0211629876734</v>
       </c>
       <c r="H27" t="n">
-        <v>118.5721901641821</v>
+        <v>118.572190164182</v>
       </c>
       <c r="I27" t="n">
         <v>67.2022965963135</v>
       </c>
       <c r="J27" t="n">
-        <v>67.2022965963135</v>
+        <v>171.1635003404554</v>
       </c>
       <c r="K27" t="n">
-        <v>109.6888109643149</v>
+        <v>475.4705993509097</v>
       </c>
       <c r="L27" t="n">
-        <v>526.7256998860488</v>
+        <v>946.0534440857959</v>
       </c>
       <c r="M27" t="n">
-        <v>1127.852905373125</v>
+        <v>1394.425341114752</v>
       </c>
       <c r="N27" t="n">
-        <v>1760.597172667077</v>
+        <v>1552.620657808586</v>
       </c>
       <c r="O27" t="n">
-        <v>2273.018882363463</v>
+        <v>2065.042367504972</v>
       </c>
       <c r="P27" t="n">
-        <v>2667.279412613341</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q27" t="n">
         <v>2670.157851783212</v>
@@ -6390,46 +6390,46 @@
         <v>153.097154149067</v>
       </c>
       <c r="L28" t="n">
-        <v>318.5394338551379</v>
+        <v>318.539433855138</v>
       </c>
       <c r="M28" t="n">
-        <v>503.3642441804031</v>
+        <v>503.3642441804033</v>
       </c>
       <c r="N28" t="n">
-        <v>689.22895004175</v>
+        <v>689.2289500417501</v>
       </c>
       <c r="O28" t="n">
-        <v>844.8887934645953</v>
+        <v>844.8887934645954</v>
       </c>
       <c r="P28" t="n">
-        <v>954.5619983528698</v>
+        <v>954.56199835287</v>
       </c>
       <c r="Q28" t="n">
-        <v>954.5619983528698</v>
+        <v>954.56199835287</v>
       </c>
       <c r="R28" t="n">
-        <v>954.5619983528698</v>
+        <v>954.56199835287</v>
       </c>
       <c r="S28" t="n">
-        <v>954.5619983528698</v>
+        <v>954.56199835287</v>
       </c>
       <c r="T28" t="n">
-        <v>728.3642141715962</v>
+        <v>728.3642141715965</v>
       </c>
       <c r="U28" t="n">
-        <v>728.3642141715962</v>
+        <v>439.2047791855277</v>
       </c>
       <c r="V28" t="n">
-        <v>728.3642141715962</v>
+        <v>439.2047791855277</v>
       </c>
       <c r="W28" t="n">
-        <v>515.9844266378609</v>
+        <v>439.2047791855277</v>
       </c>
       <c r="X28" t="n">
-        <v>287.9948757398436</v>
+        <v>211.2152282875103</v>
       </c>
       <c r="Y28" t="n">
-        <v>67.2022965963135</v>
+        <v>211.2152282875103</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1770.756744085097</v>
+        <v>1227.422396422163</v>
       </c>
       <c r="C29" t="n">
-        <v>1770.756744085097</v>
+        <v>1227.422396422163</v>
       </c>
       <c r="D29" t="n">
-        <v>1412.491045478347</v>
+        <v>869.1566978154121</v>
       </c>
       <c r="E29" t="n">
-        <v>1026.702792880102</v>
+        <v>483.3684452171679</v>
       </c>
       <c r="F29" t="n">
-        <v>615.7168880904949</v>
+        <v>72.38254042756034</v>
       </c>
       <c r="G29" t="n">
-        <v>198.3324414098951</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H29" t="n">
-        <v>198.3324414098951</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I29" t="n">
-        <v>67.20229659631349</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J29" t="n">
         <v>231.1641949821404</v>
@@ -6475,40 +6475,40 @@
         <v>1685.237002375317</v>
       </c>
       <c r="N29" t="n">
-        <v>2260.663407417569</v>
+        <v>2260.66340741757</v>
       </c>
       <c r="O29" t="n">
-        <v>2758.834606696546</v>
+        <v>2758.834606696547</v>
       </c>
       <c r="P29" t="n">
-        <v>3146.337816775582</v>
+        <v>3146.337816775583</v>
       </c>
       <c r="Q29" t="n">
         <v>3360.114829815675</v>
       </c>
       <c r="R29" t="n">
-        <v>3341.479452221462</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="S29" t="n">
-        <v>3178.504162921532</v>
+        <v>3178.504162921533</v>
       </c>
       <c r="T29" t="n">
-        <v>3140.845926040314</v>
+        <v>2962.405650514958</v>
       </c>
       <c r="U29" t="n">
-        <v>2887.130489592103</v>
+        <v>2708.690214066747</v>
       </c>
       <c r="V29" t="n">
-        <v>2887.130489592103</v>
+        <v>2377.627326723176</v>
       </c>
       <c r="W29" t="n">
-        <v>2534.361834321989</v>
+        <v>2377.627326723176</v>
       </c>
       <c r="X29" t="n">
-        <v>2160.896076060909</v>
+        <v>2004.161568462096</v>
       </c>
       <c r="Y29" t="n">
-        <v>1770.756744085097</v>
+        <v>1614.022236486284</v>
       </c>
     </row>
     <row r="30">
@@ -6533,34 +6533,34 @@
         <v>358.6212903526892</v>
       </c>
       <c r="G30" t="n">
-        <v>221.0211629876734</v>
+        <v>221.0211629876735</v>
       </c>
       <c r="H30" t="n">
-        <v>118.572190164182</v>
+        <v>118.5721901641821</v>
       </c>
       <c r="I30" t="n">
-        <v>67.20229659631349</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J30" t="n">
-        <v>67.20229659631349</v>
+        <v>171.1635003404554</v>
       </c>
       <c r="K30" t="n">
-        <v>371.5093956067677</v>
+        <v>475.4705993509097</v>
       </c>
       <c r="L30" t="n">
-        <v>842.0922403416539</v>
+        <v>946.0534440857959</v>
       </c>
       <c r="M30" t="n">
-        <v>1443.21944582873</v>
+        <v>1086.132636460373</v>
       </c>
       <c r="N30" t="n">
-        <v>1601.414762522564</v>
+        <v>1552.620657808586</v>
       </c>
       <c r="O30" t="n">
-        <v>2113.836472218949</v>
+        <v>2065.042367504972</v>
       </c>
       <c r="P30" t="n">
-        <v>2508.097002468828</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q30" t="n">
         <v>2670.157851783212</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>500.3746632735788</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="C31" t="n">
-        <v>500.3746632735788</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="D31" t="n">
-        <v>500.3746632735788</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="E31" t="n">
-        <v>500.3746632735788</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="F31" t="n">
-        <v>500.3746632735788</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="G31" t="n">
-        <v>331.6347446002383</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H31" t="n">
-        <v>176.1969556089854</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I31" t="n">
-        <v>67.20229659631349</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J31" t="n">
-        <v>67.20229659631349</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="K31" t="n">
         <v>153.097154149067</v>
       </c>
       <c r="L31" t="n">
-        <v>318.5394338551379</v>
+        <v>318.539433855138</v>
       </c>
       <c r="M31" t="n">
-        <v>503.364244180403</v>
+        <v>503.3642441804033</v>
       </c>
       <c r="N31" t="n">
-        <v>689.2289500417498</v>
+        <v>689.2289500417501</v>
       </c>
       <c r="O31" t="n">
-        <v>844.8887934645952</v>
+        <v>844.8887934645954</v>
       </c>
       <c r="P31" t="n">
-        <v>954.5619983528696</v>
+        <v>954.56199835287</v>
       </c>
       <c r="Q31" t="n">
-        <v>954.5619983528696</v>
+        <v>954.56199835287</v>
       </c>
       <c r="R31" t="n">
-        <v>954.5619983528696</v>
+        <v>954.56199835287</v>
       </c>
       <c r="S31" t="n">
-        <v>954.5619983528696</v>
+        <v>954.56199835287</v>
       </c>
       <c r="T31" t="n">
-        <v>728.3642141715961</v>
+        <v>954.56199835287</v>
       </c>
       <c r="U31" t="n">
-        <v>728.3642141715961</v>
+        <v>832.0965339826911</v>
       </c>
       <c r="V31" t="n">
-        <v>728.3642141715961</v>
+        <v>577.4120457768042</v>
       </c>
       <c r="W31" t="n">
-        <v>728.3642141715961</v>
+        <v>287.9948757398436</v>
       </c>
       <c r="X31" t="n">
-        <v>500.3746632735788</v>
+        <v>287.9948757398436</v>
       </c>
       <c r="Y31" t="n">
-        <v>500.3746632735788</v>
+        <v>67.20229659631352</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1363.103067601046</v>
+        <v>1591.204669531327</v>
       </c>
       <c r="C32" t="n">
-        <v>994.1405506606345</v>
+        <v>1222.242152590916</v>
       </c>
       <c r="D32" t="n">
-        <v>635.8748520538841</v>
+        <v>863.9764539841653</v>
       </c>
       <c r="E32" t="n">
-        <v>388.4636314053091</v>
+        <v>478.188201385921</v>
       </c>
       <c r="F32" t="n">
-        <v>388.4636314053091</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="G32" t="n">
-        <v>388.4636314053091</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H32" t="n">
-        <v>67.20229659631349</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I32" t="n">
-        <v>67.20229659631349</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J32" t="n">
-        <v>231.1641949821403</v>
+        <v>231.1641949821405</v>
       </c>
       <c r="K32" t="n">
-        <v>597.645382172675</v>
+        <v>597.6453821726755</v>
       </c>
       <c r="L32" t="n">
-        <v>1104.574328908085</v>
+        <v>1104.574328908086</v>
       </c>
       <c r="M32" t="n">
         <v>1685.237002375317</v>
       </c>
       <c r="N32" t="n">
-        <v>2260.66340741757</v>
+        <v>2260.663407417571</v>
       </c>
       <c r="O32" t="n">
-        <v>2758.834606696546</v>
+        <v>2758.834606696548</v>
       </c>
       <c r="P32" t="n">
-        <v>3146.337816775582</v>
+        <v>3146.337816775583</v>
       </c>
       <c r="Q32" t="n">
         <v>3360.114829815675</v>
       </c>
       <c r="R32" t="n">
-        <v>3360.114829815675</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="S32" t="n">
-        <v>3197.139540515745</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="T32" t="n">
-        <v>3197.139540515745</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="U32" t="n">
-        <v>3197.139540515745</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="V32" t="n">
-        <v>2866.076653172174</v>
+        <v>3094.178255102455</v>
       </c>
       <c r="W32" t="n">
-        <v>2513.307997902059</v>
+        <v>2741.409599832341</v>
       </c>
       <c r="X32" t="n">
-        <v>2139.84223964098</v>
+        <v>2367.943841571261</v>
       </c>
       <c r="Y32" t="n">
-        <v>1749.702907665168</v>
+        <v>1977.804509595449</v>
       </c>
     </row>
     <row r="33">
@@ -6770,25 +6770,25 @@
         <v>358.6212903526892</v>
       </c>
       <c r="G33" t="n">
-        <v>221.0211629876734</v>
+        <v>221.0211629876735</v>
       </c>
       <c r="H33" t="n">
-        <v>118.572190164182</v>
+        <v>118.5721901641821</v>
       </c>
       <c r="I33" t="n">
-        <v>67.20229659631349</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J33" t="n">
-        <v>67.20229659631349</v>
+        <v>171.1635003404554</v>
       </c>
       <c r="K33" t="n">
-        <v>215.2982821430966</v>
+        <v>475.4705993509097</v>
       </c>
       <c r="L33" t="n">
-        <v>318.7491850275583</v>
+        <v>946.0534440857959</v>
       </c>
       <c r="M33" t="n">
-        <v>919.8763905146349</v>
+        <v>1086.132636460373</v>
       </c>
       <c r="N33" t="n">
         <v>1552.620657808586</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>370.5531791699594</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="C34" t="n">
-        <v>370.5531791699594</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="D34" t="n">
-        <v>370.5531791699594</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="E34" t="n">
-        <v>222.6400855875663</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="F34" t="n">
-        <v>222.6400855875663</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="G34" t="n">
-        <v>222.6400855875663</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H34" t="n">
-        <v>67.20229659631349</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I34" t="n">
-        <v>67.20229659631349</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J34" t="n">
-        <v>67.20229659631349</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="K34" t="n">
         <v>153.097154149067</v>
       </c>
       <c r="L34" t="n">
-        <v>318.5394338551379</v>
+        <v>318.539433855138</v>
       </c>
       <c r="M34" t="n">
-        <v>503.364244180403</v>
+        <v>503.3642441804033</v>
       </c>
       <c r="N34" t="n">
-        <v>689.2289500417498</v>
+        <v>689.2289500417501</v>
       </c>
       <c r="O34" t="n">
-        <v>844.8887934645952</v>
+        <v>844.8887934645954</v>
       </c>
       <c r="P34" t="n">
-        <v>954.5619983528696</v>
+        <v>954.56199835287</v>
       </c>
       <c r="Q34" t="n">
-        <v>946.9066183890425</v>
+        <v>954.56199835287</v>
       </c>
       <c r="R34" t="n">
-        <v>810.4451810583689</v>
+        <v>954.56199835287</v>
       </c>
       <c r="S34" t="n">
-        <v>625.2376673758463</v>
+        <v>954.56199835287</v>
       </c>
       <c r="T34" t="n">
-        <v>625.2376673758463</v>
+        <v>759.0605106070439</v>
       </c>
       <c r="U34" t="n">
-        <v>625.2376673758463</v>
+        <v>759.0605106070439</v>
       </c>
       <c r="V34" t="n">
-        <v>370.5531791699594</v>
+        <v>759.0605106070439</v>
       </c>
       <c r="W34" t="n">
-        <v>370.5531791699594</v>
+        <v>469.6433405700833</v>
       </c>
       <c r="X34" t="n">
-        <v>370.5531791699594</v>
+        <v>469.6433405700833</v>
       </c>
       <c r="Y34" t="n">
-        <v>370.5531791699594</v>
+        <v>248.8507614265532</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1975.176009513874</v>
+        <v>1650.323417605177</v>
       </c>
       <c r="C35" t="n">
-        <v>1975.176009513874</v>
+        <v>1281.360900664765</v>
       </c>
       <c r="D35" t="n">
-        <v>1616.910310907123</v>
+        <v>1281.360900664765</v>
       </c>
       <c r="E35" t="n">
-        <v>1231.122058308879</v>
+        <v>895.5726480665209</v>
       </c>
       <c r="F35" t="n">
-        <v>820.1361535192714</v>
+        <v>484.5867432769133</v>
       </c>
       <c r="G35" t="n">
-        <v>402.7517068386716</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="H35" t="n">
-        <v>198.3324414098951</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="I35" t="n">
-        <v>67.20229659631349</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="J35" t="n">
         <v>231.1641949821403</v>
       </c>
       <c r="K35" t="n">
-        <v>597.645382172675</v>
+        <v>597.6453821726749</v>
       </c>
       <c r="L35" t="n">
         <v>1104.574328908085</v>
@@ -6952,7 +6952,7 @@
         <v>2260.66340741757</v>
       </c>
       <c r="O35" t="n">
-        <v>2758.834606696546</v>
+        <v>2758.834606696547</v>
       </c>
       <c r="P35" t="n">
         <v>3146.337816775582</v>
@@ -6961,28 +6961,28 @@
         <v>3360.114829815675</v>
       </c>
       <c r="R35" t="n">
-        <v>3341.479452221462</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="S35" t="n">
-        <v>3341.479452221462</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="T35" t="n">
-        <v>3125.380939814887</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="U35" t="n">
-        <v>3125.380939814887</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="V35" t="n">
-        <v>3125.380939814887</v>
+        <v>3010.416564877892</v>
       </c>
       <c r="W35" t="n">
-        <v>3125.380939814887</v>
+        <v>2800.52834790619</v>
       </c>
       <c r="X35" t="n">
-        <v>2751.915181553807</v>
+        <v>2427.06258964511</v>
       </c>
       <c r="Y35" t="n">
-        <v>2361.775849577995</v>
+        <v>2036.923257669298</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>118.572190164182</v>
       </c>
       <c r="I36" t="n">
-        <v>67.20229659631349</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="J36" t="n">
-        <v>67.20229659631349</v>
+        <v>171.1635003404554</v>
       </c>
       <c r="K36" t="n">
-        <v>109.6888109643149</v>
+        <v>475.4705993509097</v>
       </c>
       <c r="L36" t="n">
-        <v>526.7256998860488</v>
+        <v>946.0534440857959</v>
       </c>
       <c r="M36" t="n">
-        <v>1127.852905373125</v>
+        <v>1394.425341114752</v>
       </c>
       <c r="N36" t="n">
-        <v>1760.597172667077</v>
+        <v>1552.620657808586</v>
       </c>
       <c r="O36" t="n">
-        <v>2273.018882363463</v>
+        <v>2065.042367504972</v>
       </c>
       <c r="P36" t="n">
-        <v>2667.279412613341</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q36" t="n">
         <v>2670.157851783212</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>67.20229659631349</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="C37" t="n">
-        <v>67.20229659631349</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="D37" t="n">
-        <v>67.20229659631349</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="E37" t="n">
-        <v>67.20229659631349</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="F37" t="n">
-        <v>67.20229659631349</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="G37" t="n">
-        <v>67.20229659631349</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="H37" t="n">
-        <v>67.20229659631349</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="I37" t="n">
-        <v>67.20229659631349</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="J37" t="n">
-        <v>67.20229659631349</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="K37" t="n">
         <v>153.097154149067</v>
       </c>
       <c r="L37" t="n">
-        <v>318.5394338551379</v>
+        <v>318.539433855138</v>
       </c>
       <c r="M37" t="n">
-        <v>503.364244180403</v>
+        <v>503.3642441804033</v>
       </c>
       <c r="N37" t="n">
-        <v>689.2289500417498</v>
+        <v>689.2289500417501</v>
       </c>
       <c r="O37" t="n">
-        <v>844.8887934645952</v>
+        <v>844.8887934645954</v>
       </c>
       <c r="P37" t="n">
-        <v>954.5619983528696</v>
+        <v>954.56199835287</v>
       </c>
       <c r="Q37" t="n">
-        <v>954.5619983528696</v>
+        <v>954.56199835287</v>
       </c>
       <c r="R37" t="n">
-        <v>954.5619983528696</v>
+        <v>954.56199835287</v>
       </c>
       <c r="S37" t="n">
-        <v>744.802602487605</v>
+        <v>954.56199835287</v>
       </c>
       <c r="T37" t="n">
-        <v>744.802602487605</v>
+        <v>900.4633898252298</v>
       </c>
       <c r="U37" t="n">
-        <v>744.802602487605</v>
+        <v>611.303954839161</v>
       </c>
       <c r="V37" t="n">
-        <v>744.802602487605</v>
+        <v>356.6194666332741</v>
       </c>
       <c r="W37" t="n">
-        <v>697.6328914681006</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="X37" t="n">
-        <v>469.6433405700833</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="Y37" t="n">
-        <v>248.8507614265532</v>
+        <v>67.2022965963135</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1650.323417605177</v>
+        <v>1412.491045478347</v>
       </c>
       <c r="C38" t="n">
-        <v>1281.360900664765</v>
+        <v>1412.491045478347</v>
       </c>
       <c r="D38" t="n">
-        <v>1281.360900664765</v>
+        <v>1412.491045478347</v>
       </c>
       <c r="E38" t="n">
-        <v>895.5726480665209</v>
+        <v>1026.702792880102</v>
       </c>
       <c r="F38" t="n">
-        <v>484.5867432769133</v>
+        <v>615.7168880904949</v>
       </c>
       <c r="G38" t="n">
-        <v>67.2022965963135</v>
+        <v>198.3324414098951</v>
       </c>
       <c r="H38" t="n">
-        <v>67.2022965963135</v>
+        <v>198.3324414098951</v>
       </c>
       <c r="I38" t="n">
         <v>67.2022965963135</v>
       </c>
       <c r="J38" t="n">
-        <v>231.1641949821405</v>
+        <v>231.1641949821401</v>
       </c>
       <c r="K38" t="n">
-        <v>597.6453821726755</v>
+        <v>597.6453821726748</v>
       </c>
       <c r="L38" t="n">
-        <v>1104.574328908086</v>
+        <v>1104.574328908085</v>
       </c>
       <c r="M38" t="n">
         <v>1685.237002375317</v>
       </c>
       <c r="N38" t="n">
-        <v>2260.663407417571</v>
+        <v>2260.66340741757</v>
       </c>
       <c r="O38" t="n">
         <v>2758.834606696547</v>
@@ -7198,28 +7198,28 @@
         <v>3360.114829815675</v>
       </c>
       <c r="R38" t="n">
-        <v>3360.114829815675</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="S38" t="n">
-        <v>3360.114829815675</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="T38" t="n">
-        <v>3153.297003176304</v>
+        <v>3125.380939814887</v>
       </c>
       <c r="U38" t="n">
-        <v>3153.297003176304</v>
+        <v>3125.380939814887</v>
       </c>
       <c r="V38" t="n">
-        <v>3153.297003176304</v>
+        <v>2794.318052471317</v>
       </c>
       <c r="W38" t="n">
-        <v>2800.52834790619</v>
+        <v>2562.69597577936</v>
       </c>
       <c r="X38" t="n">
-        <v>2427.06258964511</v>
+        <v>2189.23021751828</v>
       </c>
       <c r="Y38" t="n">
-        <v>2036.923257669298</v>
+        <v>1799.090885542468</v>
       </c>
     </row>
     <row r="39">
@@ -7244,10 +7244,10 @@
         <v>358.6212903526892</v>
       </c>
       <c r="G39" t="n">
-        <v>221.0211629876735</v>
+        <v>221.0211629876734</v>
       </c>
       <c r="H39" t="n">
-        <v>118.5721901641821</v>
+        <v>118.572190164182</v>
       </c>
       <c r="I39" t="n">
         <v>67.2022965963135</v>
@@ -7256,22 +7256,22 @@
         <v>67.2022965963135</v>
       </c>
       <c r="K39" t="n">
-        <v>322.7152908927901</v>
+        <v>109.688810964315</v>
       </c>
       <c r="L39" t="n">
-        <v>793.2981356276763</v>
+        <v>526.7256998860481</v>
       </c>
       <c r="M39" t="n">
-        <v>1394.425341114753</v>
+        <v>1127.852905373125</v>
       </c>
       <c r="N39" t="n">
-        <v>1552.620657808586</v>
+        <v>1760.597172667077</v>
       </c>
       <c r="O39" t="n">
-        <v>2065.042367504972</v>
+        <v>2273.018882363463</v>
       </c>
       <c r="P39" t="n">
-        <v>2459.30289775485</v>
+        <v>2667.279412613341</v>
       </c>
       <c r="Q39" t="n">
         <v>2670.157851783212</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>67.2022965963135</v>
+        <v>235.942215269654</v>
       </c>
       <c r="C40" t="n">
-        <v>67.2022965963135</v>
+        <v>235.942215269654</v>
       </c>
       <c r="D40" t="n">
-        <v>67.2022965963135</v>
+        <v>235.942215269654</v>
       </c>
       <c r="E40" t="n">
-        <v>67.2022965963135</v>
+        <v>235.942215269654</v>
       </c>
       <c r="F40" t="n">
-        <v>67.2022965963135</v>
+        <v>235.942215269654</v>
       </c>
       <c r="G40" t="n">
         <v>67.2022965963135</v>
@@ -7338,46 +7338,46 @@
         <v>153.097154149067</v>
       </c>
       <c r="L40" t="n">
-        <v>318.5394338551379</v>
+        <v>318.539433855138</v>
       </c>
       <c r="M40" t="n">
-        <v>503.3642441804031</v>
+        <v>503.3642441804033</v>
       </c>
       <c r="N40" t="n">
-        <v>689.22895004175</v>
+        <v>689.2289500417501</v>
       </c>
       <c r="O40" t="n">
-        <v>844.8887934645953</v>
+        <v>844.8887934645954</v>
       </c>
       <c r="P40" t="n">
-        <v>954.5619983528698</v>
+        <v>954.56199835287</v>
       </c>
       <c r="Q40" t="n">
-        <v>954.5619983528698</v>
+        <v>954.56199835287</v>
       </c>
       <c r="R40" t="n">
-        <v>954.5619983528698</v>
+        <v>818.1005610221964</v>
       </c>
       <c r="S40" t="n">
-        <v>954.5619983528698</v>
+        <v>818.1005610221964</v>
       </c>
       <c r="T40" t="n">
-        <v>728.3642141715962</v>
+        <v>818.1005610221964</v>
       </c>
       <c r="U40" t="n">
-        <v>439.2047791855275</v>
+        <v>818.1005610221964</v>
       </c>
       <c r="V40" t="n">
-        <v>184.5202909796406</v>
+        <v>563.4160728163096</v>
       </c>
       <c r="W40" t="n">
-        <v>184.5202909796406</v>
+        <v>273.998902779349</v>
       </c>
       <c r="X40" t="n">
-        <v>184.5202909796406</v>
+        <v>273.998902779349</v>
       </c>
       <c r="Y40" t="n">
-        <v>67.2022965963135</v>
+        <v>235.942215269654</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1501.480099550716</v>
+        <v>1037.629030451978</v>
       </c>
       <c r="C41" t="n">
-        <v>1132.517582610304</v>
+        <v>668.6665135115661</v>
       </c>
       <c r="D41" t="n">
-        <v>774.2518840035534</v>
+        <v>484.5867432769133</v>
       </c>
       <c r="E41" t="n">
-        <v>388.4636314053091</v>
+        <v>484.5867432769133</v>
       </c>
       <c r="F41" t="n">
-        <v>388.4636314053091</v>
+        <v>484.5867432769133</v>
       </c>
       <c r="G41" t="n">
-        <v>388.4636314053091</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="H41" t="n">
         <v>67.2022965963135</v>
@@ -7411,7 +7411,7 @@
         <v>67.2022965963135</v>
       </c>
       <c r="J41" t="n">
-        <v>231.1641949821404</v>
+        <v>231.1641949821403</v>
       </c>
       <c r="K41" t="n">
         <v>597.645382172675</v>
@@ -7435,28 +7435,28 @@
         <v>3360.114829815675</v>
       </c>
       <c r="R41" t="n">
-        <v>3360.114829815675</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="S41" t="n">
-        <v>3335.516572465414</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="T41" t="n">
-        <v>3335.516572465414</v>
+        <v>3125.380939814887</v>
       </c>
       <c r="U41" t="n">
-        <v>3335.516572465414</v>
+        <v>2871.665503366676</v>
       </c>
       <c r="V41" t="n">
-        <v>3004.453685121843</v>
+        <v>2540.602616023105</v>
       </c>
       <c r="W41" t="n">
-        <v>2651.685029851729</v>
+        <v>2187.833960752991</v>
       </c>
       <c r="X41" t="n">
-        <v>2278.219271590649</v>
+        <v>1814.368202491911</v>
       </c>
       <c r="Y41" t="n">
-        <v>1888.079939614837</v>
+        <v>1424.2288705161</v>
       </c>
     </row>
     <row r="42">
@@ -7481,34 +7481,34 @@
         <v>358.6212903526892</v>
       </c>
       <c r="G42" t="n">
-        <v>221.0211629876735</v>
+        <v>221.0211629876734</v>
       </c>
       <c r="H42" t="n">
-        <v>118.5721901641821</v>
+        <v>118.572190164182</v>
       </c>
       <c r="I42" t="n">
         <v>67.2022965963135</v>
       </c>
       <c r="J42" t="n">
-        <v>67.2022965963135</v>
+        <v>171.1635003404554</v>
       </c>
       <c r="K42" t="n">
-        <v>109.6888109643149</v>
+        <v>475.4705993509097</v>
       </c>
       <c r="L42" t="n">
-        <v>580.2716556992011</v>
+        <v>946.0534440857959</v>
       </c>
       <c r="M42" t="n">
-        <v>1181.398861186278</v>
+        <v>1086.132636460373</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.143128480229</v>
+        <v>1552.620657808586</v>
       </c>
       <c r="O42" t="n">
-        <v>2326.564838176615</v>
+        <v>2065.042367504972</v>
       </c>
       <c r="P42" t="n">
-        <v>2667.279412613341</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q42" t="n">
         <v>2670.157851783212</v>
@@ -7575,34 +7575,34 @@
         <v>153.097154149067</v>
       </c>
       <c r="L43" t="n">
-        <v>318.5394338551379</v>
+        <v>318.539433855138</v>
       </c>
       <c r="M43" t="n">
-        <v>503.3642441804031</v>
+        <v>503.3642441804033</v>
       </c>
       <c r="N43" t="n">
-        <v>689.22895004175</v>
+        <v>689.2289500417501</v>
       </c>
       <c r="O43" t="n">
-        <v>844.8887934645953</v>
+        <v>844.8887934645954</v>
       </c>
       <c r="P43" t="n">
-        <v>954.5619983528698</v>
+        <v>954.56199835287</v>
       </c>
       <c r="Q43" t="n">
-        <v>954.5619983528698</v>
+        <v>954.56199835287</v>
       </c>
       <c r="R43" t="n">
-        <v>954.5619983528698</v>
+        <v>954.56199835287</v>
       </c>
       <c r="S43" t="n">
-        <v>744.8026024876051</v>
+        <v>954.56199835287</v>
       </c>
       <c r="T43" t="n">
-        <v>584.6090175312914</v>
+        <v>954.56199835287</v>
       </c>
       <c r="U43" t="n">
-        <v>584.6090175312914</v>
+        <v>839.2935057371783</v>
       </c>
       <c r="V43" t="n">
         <v>584.6090175312914</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1912.466004340323</v>
+        <v>1364.069115738159</v>
       </c>
       <c r="C44" t="n">
-        <v>1543.503487399911</v>
+        <v>995.106598797747</v>
       </c>
       <c r="D44" t="n">
-        <v>1185.237788793161</v>
+        <v>995.106598797747</v>
       </c>
       <c r="E44" t="n">
-        <v>799.4495361949166</v>
+        <v>609.3183461995027</v>
       </c>
       <c r="F44" t="n">
-        <v>388.4636314053091</v>
+        <v>198.3324414098951</v>
       </c>
       <c r="G44" t="n">
-        <v>388.4636314053091</v>
+        <v>198.3324414098951</v>
       </c>
       <c r="H44" t="n">
-        <v>67.20229659631349</v>
+        <v>198.3324414098951</v>
       </c>
       <c r="I44" t="n">
-        <v>67.20229659631349</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="J44" t="n">
         <v>231.1641949821404</v>
@@ -7672,28 +7672,28 @@
         <v>3360.114829815675</v>
       </c>
       <c r="R44" t="n">
-        <v>3360.114829815675</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="S44" t="n">
-        <v>3360.114829815675</v>
+        <v>3336.856650164073</v>
       </c>
       <c r="T44" t="n">
-        <v>3360.114829815675</v>
+        <v>3120.758137757497</v>
       </c>
       <c r="U44" t="n">
-        <v>3106.399393367463</v>
+        <v>2867.042701309286</v>
       </c>
       <c r="V44" t="n">
-        <v>3106.399393367463</v>
+        <v>2867.042701309286</v>
       </c>
       <c r="W44" t="n">
-        <v>2753.630738097349</v>
+        <v>2514.274046039172</v>
       </c>
       <c r="X44" t="n">
-        <v>2380.164979836269</v>
+        <v>2140.808287778092</v>
       </c>
       <c r="Y44" t="n">
-        <v>2299.065844404445</v>
+        <v>1750.66895580228</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>118.572190164182</v>
       </c>
       <c r="I45" t="n">
-        <v>67.20229659631349</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="J45" t="n">
-        <v>67.20229659631349</v>
+        <v>171.1635003404554</v>
       </c>
       <c r="K45" t="n">
-        <v>371.5093956067677</v>
+        <v>475.4705993509097</v>
       </c>
       <c r="L45" t="n">
-        <v>474.9602984912294</v>
+        <v>946.0534440857959</v>
       </c>
       <c r="M45" t="n">
-        <v>1076.087503978306</v>
+        <v>1394.425341114752</v>
       </c>
       <c r="N45" t="n">
-        <v>1708.831771272257</v>
+        <v>1552.620657808586</v>
       </c>
       <c r="O45" t="n">
         <v>2065.042367504972</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2472.755128059118</v>
+        <v>364.2088835065596</v>
       </c>
       <c r="C46" t="n">
-        <v>2472.755128059118</v>
+        <v>364.2088835065596</v>
       </c>
       <c r="D46" t="n">
-        <v>2472.755128059118</v>
+        <v>214.0922440942239</v>
       </c>
       <c r="E46" t="n">
-        <v>2472.755128059118</v>
+        <v>214.0922440942239</v>
       </c>
       <c r="F46" t="n">
-        <v>2472.755128059118</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="G46" t="n">
-        <v>2472.755128059118</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="H46" t="n">
-        <v>2472.755128059118</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="I46" t="n">
-        <v>2472.755128059118</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="J46" t="n">
-        <v>2472.755128059118</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="K46" t="n">
-        <v>2558.649985611871</v>
+        <v>153.097154149067</v>
       </c>
       <c r="L46" t="n">
-        <v>2724.092265317942</v>
+        <v>318.539433855138</v>
       </c>
       <c r="M46" t="n">
-        <v>2908.917075643208</v>
+        <v>503.3642441804033</v>
       </c>
       <c r="N46" t="n">
-        <v>3094.781781504555</v>
+        <v>689.2289500417501</v>
       </c>
       <c r="O46" t="n">
-        <v>3250.4416249274</v>
+        <v>844.8887934645954</v>
       </c>
       <c r="P46" t="n">
-        <v>3360.114829815675</v>
+        <v>954.56199835287</v>
       </c>
       <c r="Q46" t="n">
-        <v>3360.114829815675</v>
+        <v>954.56199835287</v>
       </c>
       <c r="R46" t="n">
-        <v>3360.114829815675</v>
+        <v>954.56199835287</v>
       </c>
       <c r="S46" t="n">
-        <v>3360.114829815675</v>
+        <v>954.56199835287</v>
       </c>
       <c r="T46" t="n">
-        <v>3360.114829815675</v>
+        <v>954.56199835287</v>
       </c>
       <c r="U46" t="n">
-        <v>3070.955394829606</v>
+        <v>954.56199835287</v>
       </c>
       <c r="V46" t="n">
-        <v>3070.955394829606</v>
+        <v>699.8775101469831</v>
       </c>
       <c r="W46" t="n">
-        <v>3070.955394829606</v>
+        <v>410.4603401100225</v>
       </c>
       <c r="X46" t="n">
-        <v>2842.965843931588</v>
+        <v>364.2088835065596</v>
       </c>
       <c r="Y46" t="n">
-        <v>2622.173264788058</v>
+        <v>364.2088835065596</v>
       </c>
     </row>
   </sheetData>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516227</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,13 +8774,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9014,7 +9014,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>359.906554245176</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9482,7 +9482,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K21" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9716,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>21.0797184271342</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>311.4067723781612</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>264.3759445862478</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,19 +9953,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>21.0797184271342</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>316.7535212497699</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>311.4067723781612</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>21.0797184271342</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10199,10 +10199,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>311.4067723781612</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>160.7903132772859</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,19 +10427,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>21.0797184271342</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>106.6762335139209</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>311.4067723781612</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10664,19 +10664,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>21.0797184271342</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>316.75352124977</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>311.4067723781612</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,19 +10901,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>21.0797184271342</v>
+        <v>21.07971842713417</v>
       </c>
       <c r="K39" t="n">
-        <v>215.1782625540153</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>316.7535212497692</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720739</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>21.0797184271342</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>311.4067723781612</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>264.3759445862478</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11311,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>380.800181262745</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11375,22 +11375,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>21.0797184271342</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>311.4067723781612</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>236.0733157780716</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>49.11500274754027</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23314,10 +23314,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>234.6185890181009</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>80.45075642081954</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
@@ -23472,13 +23472,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>42.2057561529486</v>
+        <v>60.58637043937642</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23706,16 +23706,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V16" t="n">
-        <v>96.01048066168073</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>15.75279013640062</v>
+        <v>44.49115460673193</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23940,10 +23940,10 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
-        <v>56.01837628787166</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>131.0703856053966</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>225.5444320507722</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>15.17392975220724</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24180,16 +24180,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>157.4983735401874</v>
+        <v>275.842460843618</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>58.06638253789203</v>
       </c>
       <c r="D23" t="n">
-        <v>340.993978243613</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>129.8188433654458</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T23" t="n">
         <v>213.9375272825098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24387,7 +24387,7 @@
         <v>127.2284271446648</v>
       </c>
       <c r="J25" t="n">
-        <v>27.01006717676066</v>
+        <v>27.01006717676064</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.57882616418884</v>
+        <v>7.578826164188825</v>
       </c>
       <c r="R25" t="n">
         <v>135.0968229573668</v>
@@ -24420,7 +24420,7 @@
         <v>223.9358063394608</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>172.1520329466733</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>172.1520329466732</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>103.5240953910748</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I26" t="n">
         <v>129.8188433654458</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>18.44902381826984</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>161.3455364069307</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V26" t="n">
-        <v>122.1473015469827</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>37.25917780765241</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24624,7 +24624,7 @@
         <v>127.2284271446648</v>
       </c>
       <c r="J28" t="n">
-        <v>27.01006717676066</v>
+        <v>27.01006717676064</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.57882616418884</v>
+        <v>7.578826164188825</v>
       </c>
       <c r="R28" t="n">
         <v>135.0968229573668</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>76.26700867819304</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>408.0821608208594</v>
       </c>
       <c r="H29" t="n">
         <v>318.0487214609057</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>129.8188433654458</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,16 +24733,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>176.6558727701038</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24852,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.8834111013403</v>
       </c>
       <c r="I31" t="n">
-        <v>19.3237147221196</v>
+        <v>127.2284271446648</v>
       </c>
       <c r="J31" t="n">
-        <v>27.01006717676066</v>
+        <v>27.01006717676064</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>7.57882616418884</v>
+        <v>7.578826164188825</v>
       </c>
       <c r="R31" t="n">
         <v>135.0968229573668</v>
@@ -24891,22 +24891,22 @@
         <v>207.661801906612</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2678406362081</v>
+        <v>165.027030909731</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24925,16 +24925,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>136.9932616301726</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>413.2106022137938</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I32" t="n">
         <v>129.8188433654458</v>
@@ -24964,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>18.44902381826984</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T32" t="n">
         <v>213.9375272825098</v>
@@ -24976,7 +24976,7 @@
         <v>251.1782820837292</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>82.92407332231693</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,13 +25092,13 @@
         <v>167.0525194866071</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.8834111013403</v>
       </c>
       <c r="I34" t="n">
         <v>127.2284271446648</v>
       </c>
       <c r="J34" t="n">
-        <v>27.01006717676066</v>
+        <v>27.01006717676064</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,31 +25119,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>7.578826164188825</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>135.0968229573668</v>
       </c>
       <c r="S34" t="n">
-        <v>24.30636336091464</v>
+        <v>207.661801906612</v>
       </c>
       <c r="T34" t="n">
-        <v>223.9358063394608</v>
+        <v>30.38933347109293</v>
       </c>
       <c r="U34" t="n">
         <v>286.2678406362081</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25156,10 +25156,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>115.673648686417</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>129.8188433654458</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>161.3455364069307</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U35" t="n">
         <v>251.1782820837292</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>141.4516339154279</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25335,7 +25335,7 @@
         <v>127.2284271446648</v>
       </c>
       <c r="J37" t="n">
-        <v>27.01006717676066</v>
+        <v>27.01006717676064</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,31 +25356,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>7.57882616418884</v>
+        <v>7.578826164188825</v>
       </c>
       <c r="R37" t="n">
         <v>135.0968229573668</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>207.661801906612</v>
       </c>
       <c r="T37" t="n">
-        <v>223.9358063394608</v>
+        <v>170.378183897097</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>239.8249844272817</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25411,7 +25411,7 @@
         <v>318.0487214609057</v>
       </c>
       <c r="I38" t="n">
-        <v>129.8188433654458</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,22 +25438,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>18.44902381826984</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>161.3455364069307</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T38" t="n">
-        <v>9.187878909532913</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.1782820837292</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>119.9351127923762</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>153.8834111013403</v>
@@ -25572,7 +25572,7 @@
         <v>127.2284271446648</v>
       </c>
       <c r="J40" t="n">
-        <v>27.01006717676066</v>
+        <v>27.01006717676064</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,31 +25593,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>7.57882616418884</v>
+        <v>7.578826164188825</v>
       </c>
       <c r="R40" t="n">
-        <v>135.0968229573668</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>207.661801906612</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>102.439838912601</v>
+        <v>180.9085327174968</v>
       </c>
     </row>
     <row r="41">
@@ -25633,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>172.4440690883767</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I41" t="n">
         <v>129.8188433654458</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>18.44902381826984</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>136.9932616301722</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T41" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25809,7 +25809,7 @@
         <v>127.2284271446648</v>
       </c>
       <c r="J43" t="n">
-        <v>27.01006717676066</v>
+        <v>27.01006717676064</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,22 +25830,22 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>7.57882616418884</v>
+        <v>7.578826164188825</v>
       </c>
       <c r="R43" t="n">
         <v>135.0968229573668</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>207.661801906612</v>
       </c>
       <c r="T43" t="n">
-        <v>65.34415723271027</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2678406362081</v>
+        <v>172.1520329466733</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>413.2106022137938</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I44" t="n">
-        <v>129.8188433654458</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>18.44902381826984</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>161.3455364069307</v>
+        <v>156.7689623701147</v>
       </c>
       <c r="T44" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>305.9497945785474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.90802482028647</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.0525194866071</v>
@@ -26046,7 +26046,7 @@
         <v>127.2284271446648</v>
       </c>
       <c r="J46" t="n">
-        <v>27.01006717676066</v>
+        <v>27.01006717676064</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>7.57882616418884</v>
+        <v>7.578826164188825</v>
       </c>
       <c r="R46" t="n">
         <v>135.0968229573668</v>
@@ -26079,19 +26079,19 @@
         <v>223.9358063394608</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>179.9207133516088</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>714940.2716782377</v>
+        <v>714940.2716782376</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>714940.2716782377</v>
+        <v>714940.2716782378</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>714940.2716782376</v>
+        <v>714940.2716782377</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>788267.9409451163</v>
+        <v>788267.9409451165</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>788267.9409451166</v>
+        <v>788267.9409451165</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>788267.9409451167</v>
+        <v>788267.9409451165</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>788267.9409451165</v>
+        <v>788267.9409451166</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>788267.9409451166</v>
+        <v>788267.9409451165</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719628</v>
+        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>332525.5015181213</v>
+        <v>332525.5015181212</v>
       </c>
       <c r="F2" t="n">
-        <v>332525.5015181213</v>
+        <v>332525.5015181212</v>
       </c>
       <c r="G2" t="n">
-        <v>332525.5015181212</v>
+        <v>332525.5015181215</v>
       </c>
       <c r="H2" t="n">
         <v>332525.5015181212</v>
       </c>
       <c r="I2" t="n">
-        <v>369476.174915627</v>
+        <v>369476.1749156272</v>
       </c>
       <c r="J2" t="n">
         <v>369476.1749156272</v>
       </c>
       <c r="K2" t="n">
+        <v>369476.1749156272</v>
+      </c>
+      <c r="L2" t="n">
+        <v>369476.1749156272</v>
+      </c>
+      <c r="M2" t="n">
+        <v>369476.1749156272</v>
+      </c>
+      <c r="N2" t="n">
         <v>369476.1749156271</v>
-      </c>
-      <c r="L2" t="n">
-        <v>369476.1749156271</v>
-      </c>
-      <c r="M2" t="n">
-        <v>369476.1749156271</v>
-      </c>
-      <c r="N2" t="n">
-        <v>369476.174915627</v>
       </c>
       <c r="O2" t="n">
         <v>369476.1749156271</v>
       </c>
       <c r="P2" t="n">
-        <v>369476.1749156271</v>
+        <v>369476.1749156272</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145448</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>151472.5856033436</v>
+        <v>151472.5856033437</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
         <v>174490.7773218262</v>
@@ -26438,7 +26438,7 @@
         <v>35944.74664026682</v>
       </c>
       <c r="I4" t="n">
-        <v>33848.04260492179</v>
+        <v>33848.0426049218</v>
       </c>
       <c r="J4" t="n">
         <v>33848.0426049218</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26496,10 +26496,10 @@
         <v>62418.87211854674</v>
       </c>
       <c r="K5" t="n">
-        <v>62418.87211854674</v>
+        <v>62418.87211854675</v>
       </c>
       <c r="L5" t="n">
-        <v>62418.87211854674</v>
+        <v>62418.87211854675</v>
       </c>
       <c r="M5" t="n">
         <v>62418.87211854674</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-375218.7169278175</v>
+        <v>-375218.7169278171</v>
       </c>
       <c r="C6" t="n">
-        <v>214749.1622867272</v>
+        <v>214749.1622867274</v>
       </c>
       <c r="D6" t="n">
         <v>214749.1622867273</v>
       </c>
       <c r="E6" t="n">
-        <v>247349.276814445</v>
+        <v>241280.8630686257</v>
       </c>
       <c r="F6" t="n">
-        <v>247349.276814445</v>
+        <v>241280.8630686257</v>
       </c>
       <c r="G6" t="n">
-        <v>247349.2768144449</v>
+        <v>241280.8630686261</v>
       </c>
       <c r="H6" t="n">
-        <v>247349.2768144449</v>
+        <v>241280.8630686257</v>
       </c>
       <c r="I6" t="n">
-        <v>121736.6745888149</v>
+        <v>117274.8118602786</v>
       </c>
       <c r="J6" t="n">
-        <v>96786.04099956562</v>
+        <v>92324.17827102941</v>
       </c>
       <c r="K6" t="n">
-        <v>273209.2601921586</v>
+        <v>268747.3974636223</v>
       </c>
       <c r="L6" t="n">
-        <v>273209.2601921586</v>
+        <v>268747.3974636223</v>
       </c>
       <c r="M6" t="n">
-        <v>273209.2601921585</v>
+        <v>268747.3974636223</v>
       </c>
       <c r="N6" t="n">
-        <v>273209.2601921585</v>
+        <v>268747.3974636222</v>
       </c>
       <c r="O6" t="n">
-        <v>273209.2601921586</v>
+        <v>268747.3974636222</v>
       </c>
       <c r="P6" t="n">
-        <v>273209.2601921586</v>
+        <v>268747.3974636223</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
@@ -26758,28 +26758,28 @@
         <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
-        <v>520.418656208646</v>
+        <v>520.4186562086461</v>
       </c>
       <c r="J3" t="n">
-        <v>520.418656208646</v>
+        <v>520.4186562086461</v>
       </c>
       <c r="K3" t="n">
-        <v>520.418656208646</v>
+        <v>520.4186562086461</v>
       </c>
       <c r="L3" t="n">
-        <v>520.418656208646</v>
+        <v>520.4186562086461</v>
       </c>
       <c r="M3" t="n">
-        <v>520.418656208646</v>
+        <v>520.4186562086461</v>
       </c>
       <c r="N3" t="n">
-        <v>520.418656208646</v>
+        <v>520.4186562086461</v>
       </c>
       <c r="O3" t="n">
-        <v>520.418656208646</v>
+        <v>520.4186562086461</v>
       </c>
       <c r="P3" t="n">
-        <v>520.418656208646</v>
+        <v>520.4186562086461</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26810,19 +26810,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>840.0287074539186</v>
+        <v>840.0287074539187</v>
       </c>
       <c r="J4" t="n">
         <v>840.0287074539187</v>
       </c>
       <c r="K4" t="n">
-        <v>840.0287074539186</v>
+        <v>840.0287074539189</v>
       </c>
       <c r="L4" t="n">
-        <v>840.0287074539186</v>
+        <v>840.0287074539189</v>
       </c>
       <c r="M4" t="n">
-        <v>840.0287074539186</v>
+        <v>840.0287074539187</v>
       </c>
       <c r="N4" t="n">
         <v>840.0287074539187</v>
@@ -26831,7 +26831,7 @@
         <v>840.0287074539187</v>
       </c>
       <c r="P4" t="n">
-        <v>840.0287074539186</v>
+        <v>840.0287074539187</v>
       </c>
     </row>
   </sheetData>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>142.6749919915593</v>
+        <v>142.6749919915594</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>165.741434699363</v>
+        <v>165.7414346993631</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>66.90748812322818</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,16 +27432,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>122.9862186766245</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,10 +27548,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>133.1175731262728</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>148.5363980421334</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>264.0387179909509</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>150.4595900168376</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>136.7057146380968</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,13 +27833,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>171.2488638306982</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,19 +27855,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>53.58012876371532</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>3.255830269183264</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>136.7057146380965</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28067,10 +28067,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>163.8827376991425</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31047,43 +31047,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,25 +31223,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -32706,7 +32706,7 @@
         <v>21.42608065486148</v>
       </c>
       <c r="I23" t="n">
-        <v>80.65704620496011</v>
+        <v>80.65704620496014</v>
       </c>
       <c r="J23" t="n">
         <v>177.5673685322154</v>
@@ -32715,13 +32715,13 @@
         <v>266.1274558379922</v>
       </c>
       <c r="L23" t="n">
-        <v>330.1546415664157</v>
+        <v>330.1546415664158</v>
       </c>
       <c r="M23" t="n">
-        <v>367.3606527316438</v>
+        <v>367.3606527316439</v>
       </c>
       <c r="N23" t="n">
-        <v>373.3049321565798</v>
+        <v>373.3049321565799</v>
       </c>
       <c r="O23" t="n">
         <v>352.5012617538674</v>
@@ -32733,13 +32733,13 @@
         <v>225.9270760227193</v>
       </c>
       <c r="R23" t="n">
-        <v>131.4200941228798</v>
+        <v>131.4200941228799</v>
       </c>
       <c r="S23" t="n">
-        <v>47.67453317931466</v>
+        <v>47.67453317931468</v>
       </c>
       <c r="T23" t="n">
-        <v>9.158322281621496</v>
+        <v>9.158322281621498</v>
       </c>
       <c r="U23" t="n">
         <v>0.1673708241073031</v>
@@ -32785,43 +32785,43 @@
         <v>10.81096114123999</v>
       </c>
       <c r="I24" t="n">
-        <v>38.5404382192252</v>
+        <v>38.54043821922522</v>
       </c>
       <c r="J24" t="n">
         <v>105.7579082395325</v>
       </c>
       <c r="K24" t="n">
-        <v>180.7571100531483</v>
+        <v>180.7571100531484</v>
       </c>
       <c r="L24" t="n">
-        <v>243.0502412793304</v>
+        <v>243.0502412793305</v>
       </c>
       <c r="M24" t="n">
-        <v>283.628167633712</v>
+        <v>283.6281676337121</v>
       </c>
       <c r="N24" t="n">
-        <v>291.1349612690236</v>
+        <v>291.1349612690237</v>
       </c>
       <c r="O24" t="n">
-        <v>266.3316117297209</v>
+        <v>266.331611729721</v>
       </c>
       <c r="P24" t="n">
-        <v>213.754598622755</v>
+        <v>213.7545986227551</v>
       </c>
       <c r="Q24" t="n">
         <v>142.889288399023</v>
       </c>
       <c r="R24" t="n">
-        <v>69.50043865367543</v>
+        <v>69.50043865367545</v>
       </c>
       <c r="S24" t="n">
-        <v>20.79219819852466</v>
+        <v>20.79219819852467</v>
       </c>
       <c r="T24" t="n">
         <v>4.511931557129675</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07364414946348767</v>
+        <v>0.07364414946348768</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,22 +32858,22 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9384598718516566</v>
+        <v>0.9384598718516568</v>
       </c>
       <c r="H25" t="n">
-        <v>8.343761406099279</v>
+        <v>8.343761406099281</v>
       </c>
       <c r="I25" t="n">
-        <v>28.22204778259346</v>
+        <v>28.22204778259347</v>
       </c>
       <c r="J25" t="n">
-        <v>66.34911293991212</v>
+        <v>66.34911293991213</v>
       </c>
       <c r="K25" t="n">
-        <v>109.0319742024015</v>
+        <v>109.0319742024016</v>
       </c>
       <c r="L25" t="n">
-        <v>139.5233885841999</v>
+        <v>139.5233885842</v>
       </c>
       <c r="M25" t="n">
         <v>147.1078506394374</v>
@@ -32888,19 +32888,19 @@
         <v>113.5024557737676</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.58321708750555</v>
+        <v>78.58321708750556</v>
       </c>
       <c r="R25" t="n">
-        <v>42.19656841980266</v>
+        <v>42.19656841980267</v>
       </c>
       <c r="S25" t="n">
         <v>16.35479613036023</v>
       </c>
       <c r="T25" t="n">
-        <v>4.009783088820713</v>
+        <v>4.009783088820714</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05118872028281769</v>
+        <v>0.0511887202828177</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,7 +32943,7 @@
         <v>21.42608065486148</v>
       </c>
       <c r="I26" t="n">
-        <v>80.65704620496011</v>
+        <v>80.65704620496014</v>
       </c>
       <c r="J26" t="n">
         <v>177.5673685322154</v>
@@ -32952,13 +32952,13 @@
         <v>266.1274558379922</v>
       </c>
       <c r="L26" t="n">
-        <v>330.1546415664157</v>
+        <v>330.1546415664158</v>
       </c>
       <c r="M26" t="n">
-        <v>367.3606527316438</v>
+        <v>367.3606527316439</v>
       </c>
       <c r="N26" t="n">
-        <v>373.3049321565798</v>
+        <v>373.3049321565799</v>
       </c>
       <c r="O26" t="n">
         <v>352.5012617538674</v>
@@ -32970,13 +32970,13 @@
         <v>225.9270760227193</v>
       </c>
       <c r="R26" t="n">
-        <v>131.4200941228798</v>
+        <v>131.4200941228799</v>
       </c>
       <c r="S26" t="n">
-        <v>47.67453317931466</v>
+        <v>47.67453317931468</v>
       </c>
       <c r="T26" t="n">
-        <v>9.158322281621496</v>
+        <v>9.158322281621498</v>
       </c>
       <c r="U26" t="n">
         <v>0.1673708241073031</v>
@@ -33022,43 +33022,43 @@
         <v>10.81096114123999</v>
       </c>
       <c r="I27" t="n">
-        <v>38.5404382192252</v>
+        <v>38.54043821922522</v>
       </c>
       <c r="J27" t="n">
         <v>105.7579082395325</v>
       </c>
       <c r="K27" t="n">
-        <v>180.7571100531483</v>
+        <v>180.7571100531484</v>
       </c>
       <c r="L27" t="n">
-        <v>243.0502412793304</v>
+        <v>243.0502412793305</v>
       </c>
       <c r="M27" t="n">
-        <v>283.628167633712</v>
+        <v>283.6281676337121</v>
       </c>
       <c r="N27" t="n">
-        <v>291.1349612690236</v>
+        <v>291.1349612690237</v>
       </c>
       <c r="O27" t="n">
-        <v>266.3316117297209</v>
+        <v>266.331611729721</v>
       </c>
       <c r="P27" t="n">
-        <v>213.754598622755</v>
+        <v>213.7545986227551</v>
       </c>
       <c r="Q27" t="n">
         <v>142.889288399023</v>
       </c>
       <c r="R27" t="n">
-        <v>69.50043865367543</v>
+        <v>69.50043865367545</v>
       </c>
       <c r="S27" t="n">
-        <v>20.79219819852466</v>
+        <v>20.79219819852467</v>
       </c>
       <c r="T27" t="n">
         <v>4.511931557129675</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07364414946348767</v>
+        <v>0.07364414946348768</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,22 +33095,22 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9384598718516566</v>
+        <v>0.9384598718516568</v>
       </c>
       <c r="H28" t="n">
-        <v>8.343761406099279</v>
+        <v>8.343761406099281</v>
       </c>
       <c r="I28" t="n">
-        <v>28.22204778259346</v>
+        <v>28.22204778259347</v>
       </c>
       <c r="J28" t="n">
-        <v>66.34911293991212</v>
+        <v>66.34911293991213</v>
       </c>
       <c r="K28" t="n">
-        <v>109.0319742024015</v>
+        <v>109.0319742024016</v>
       </c>
       <c r="L28" t="n">
-        <v>139.5233885841999</v>
+        <v>139.5233885842</v>
       </c>
       <c r="M28" t="n">
         <v>147.1078506394374</v>
@@ -33125,19 +33125,19 @@
         <v>113.5024557737676</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.58321708750555</v>
+        <v>78.58321708750556</v>
       </c>
       <c r="R28" t="n">
-        <v>42.19656841980266</v>
+        <v>42.19656841980267</v>
       </c>
       <c r="S28" t="n">
         <v>16.35479613036023</v>
       </c>
       <c r="T28" t="n">
-        <v>4.009783088820713</v>
+        <v>4.009783088820714</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05118872028281769</v>
+        <v>0.0511887202828177</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,7 +33180,7 @@
         <v>21.42608065486148</v>
       </c>
       <c r="I29" t="n">
-        <v>80.65704620496011</v>
+        <v>80.65704620496014</v>
       </c>
       <c r="J29" t="n">
         <v>177.5673685322154</v>
@@ -33189,13 +33189,13 @@
         <v>266.1274558379922</v>
       </c>
       <c r="L29" t="n">
-        <v>330.1546415664157</v>
+        <v>330.1546415664158</v>
       </c>
       <c r="M29" t="n">
-        <v>367.3606527316438</v>
+        <v>367.3606527316439</v>
       </c>
       <c r="N29" t="n">
-        <v>373.3049321565798</v>
+        <v>373.3049321565799</v>
       </c>
       <c r="O29" t="n">
         <v>352.5012617538674</v>
@@ -33207,13 +33207,13 @@
         <v>225.9270760227193</v>
       </c>
       <c r="R29" t="n">
-        <v>131.4200941228798</v>
+        <v>131.4200941228799</v>
       </c>
       <c r="S29" t="n">
-        <v>47.67453317931466</v>
+        <v>47.67453317931468</v>
       </c>
       <c r="T29" t="n">
-        <v>9.158322281621496</v>
+        <v>9.158322281621498</v>
       </c>
       <c r="U29" t="n">
         <v>0.1673708241073031</v>
@@ -33259,43 +33259,43 @@
         <v>10.81096114123999</v>
       </c>
       <c r="I30" t="n">
-        <v>38.5404382192252</v>
+        <v>38.54043821922522</v>
       </c>
       <c r="J30" t="n">
         <v>105.7579082395325</v>
       </c>
       <c r="K30" t="n">
-        <v>180.7571100531483</v>
+        <v>180.7571100531484</v>
       </c>
       <c r="L30" t="n">
-        <v>243.0502412793304</v>
+        <v>243.0502412793305</v>
       </c>
       <c r="M30" t="n">
-        <v>283.628167633712</v>
+        <v>283.6281676337121</v>
       </c>
       <c r="N30" t="n">
-        <v>291.1349612690236</v>
+        <v>291.1349612690237</v>
       </c>
       <c r="O30" t="n">
-        <v>266.3316117297209</v>
+        <v>266.331611729721</v>
       </c>
       <c r="P30" t="n">
-        <v>213.754598622755</v>
+        <v>213.7545986227551</v>
       </c>
       <c r="Q30" t="n">
         <v>142.889288399023</v>
       </c>
       <c r="R30" t="n">
-        <v>69.50043865367543</v>
+        <v>69.50043865367545</v>
       </c>
       <c r="S30" t="n">
-        <v>20.79219819852466</v>
+        <v>20.79219819852467</v>
       </c>
       <c r="T30" t="n">
         <v>4.511931557129675</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07364414946348767</v>
+        <v>0.07364414946348768</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,22 +33332,22 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9384598718516566</v>
+        <v>0.9384598718516568</v>
       </c>
       <c r="H31" t="n">
-        <v>8.343761406099279</v>
+        <v>8.343761406099281</v>
       </c>
       <c r="I31" t="n">
-        <v>28.22204778259346</v>
+        <v>28.22204778259347</v>
       </c>
       <c r="J31" t="n">
-        <v>66.34911293991212</v>
+        <v>66.34911293991213</v>
       </c>
       <c r="K31" t="n">
-        <v>109.0319742024015</v>
+        <v>109.0319742024016</v>
       </c>
       <c r="L31" t="n">
-        <v>139.5233885841999</v>
+        <v>139.5233885842</v>
       </c>
       <c r="M31" t="n">
         <v>147.1078506394374</v>
@@ -33362,19 +33362,19 @@
         <v>113.5024557737676</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.58321708750555</v>
+        <v>78.58321708750556</v>
       </c>
       <c r="R31" t="n">
-        <v>42.19656841980266</v>
+        <v>42.19656841980267</v>
       </c>
       <c r="S31" t="n">
         <v>16.35479613036023</v>
       </c>
       <c r="T31" t="n">
-        <v>4.009783088820713</v>
+        <v>4.009783088820714</v>
       </c>
       <c r="U31" t="n">
-        <v>0.05118872028281769</v>
+        <v>0.0511887202828177</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,7 +33417,7 @@
         <v>21.42608065486148</v>
       </c>
       <c r="I32" t="n">
-        <v>80.65704620496011</v>
+        <v>80.65704620496014</v>
       </c>
       <c r="J32" t="n">
         <v>177.5673685322154</v>
@@ -33426,13 +33426,13 @@
         <v>266.1274558379922</v>
       </c>
       <c r="L32" t="n">
-        <v>330.1546415664157</v>
+        <v>330.1546415664158</v>
       </c>
       <c r="M32" t="n">
-        <v>367.3606527316438</v>
+        <v>367.3606527316439</v>
       </c>
       <c r="N32" t="n">
-        <v>373.3049321565798</v>
+        <v>373.3049321565799</v>
       </c>
       <c r="O32" t="n">
         <v>352.5012617538674</v>
@@ -33444,13 +33444,13 @@
         <v>225.9270760227193</v>
       </c>
       <c r="R32" t="n">
-        <v>131.4200941228798</v>
+        <v>131.4200941228799</v>
       </c>
       <c r="S32" t="n">
-        <v>47.67453317931466</v>
+        <v>47.67453317931468</v>
       </c>
       <c r="T32" t="n">
-        <v>9.158322281621496</v>
+        <v>9.158322281621498</v>
       </c>
       <c r="U32" t="n">
         <v>0.1673708241073031</v>
@@ -33496,43 +33496,43 @@
         <v>10.81096114123999</v>
       </c>
       <c r="I33" t="n">
-        <v>38.5404382192252</v>
+        <v>38.54043821922522</v>
       </c>
       <c r="J33" t="n">
         <v>105.7579082395325</v>
       </c>
       <c r="K33" t="n">
-        <v>180.7571100531483</v>
+        <v>180.7571100531484</v>
       </c>
       <c r="L33" t="n">
-        <v>243.0502412793304</v>
+        <v>243.0502412793305</v>
       </c>
       <c r="M33" t="n">
-        <v>283.628167633712</v>
+        <v>283.6281676337121</v>
       </c>
       <c r="N33" t="n">
-        <v>291.1349612690236</v>
+        <v>291.1349612690237</v>
       </c>
       <c r="O33" t="n">
-        <v>266.3316117297209</v>
+        <v>266.331611729721</v>
       </c>
       <c r="P33" t="n">
-        <v>213.754598622755</v>
+        <v>213.7545986227551</v>
       </c>
       <c r="Q33" t="n">
         <v>142.889288399023</v>
       </c>
       <c r="R33" t="n">
-        <v>69.50043865367543</v>
+        <v>69.50043865367545</v>
       </c>
       <c r="S33" t="n">
-        <v>20.79219819852466</v>
+        <v>20.79219819852467</v>
       </c>
       <c r="T33" t="n">
         <v>4.511931557129675</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07364414946348767</v>
+        <v>0.07364414946348768</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,22 +33569,22 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9384598718516566</v>
+        <v>0.9384598718516568</v>
       </c>
       <c r="H34" t="n">
-        <v>8.343761406099279</v>
+        <v>8.343761406099281</v>
       </c>
       <c r="I34" t="n">
-        <v>28.22204778259346</v>
+        <v>28.22204778259347</v>
       </c>
       <c r="J34" t="n">
-        <v>66.34911293991212</v>
+        <v>66.34911293991213</v>
       </c>
       <c r="K34" t="n">
-        <v>109.0319742024015</v>
+        <v>109.0319742024016</v>
       </c>
       <c r="L34" t="n">
-        <v>139.5233885841999</v>
+        <v>139.5233885842</v>
       </c>
       <c r="M34" t="n">
         <v>147.1078506394374</v>
@@ -33599,19 +33599,19 @@
         <v>113.5024557737676</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.58321708750555</v>
+        <v>78.58321708750556</v>
       </c>
       <c r="R34" t="n">
-        <v>42.19656841980266</v>
+        <v>42.19656841980267</v>
       </c>
       <c r="S34" t="n">
         <v>16.35479613036023</v>
       </c>
       <c r="T34" t="n">
-        <v>4.009783088820713</v>
+        <v>4.009783088820714</v>
       </c>
       <c r="U34" t="n">
-        <v>0.05118872028281769</v>
+        <v>0.0511887202828177</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,7 +33654,7 @@
         <v>21.42608065486148</v>
       </c>
       <c r="I35" t="n">
-        <v>80.65704620496011</v>
+        <v>80.65704620496014</v>
       </c>
       <c r="J35" t="n">
         <v>177.5673685322154</v>
@@ -33663,13 +33663,13 @@
         <v>266.1274558379922</v>
       </c>
       <c r="L35" t="n">
-        <v>330.1546415664157</v>
+        <v>330.1546415664158</v>
       </c>
       <c r="M35" t="n">
-        <v>367.3606527316438</v>
+        <v>367.3606527316439</v>
       </c>
       <c r="N35" t="n">
-        <v>373.3049321565798</v>
+        <v>373.3049321565799</v>
       </c>
       <c r="O35" t="n">
         <v>352.5012617538674</v>
@@ -33681,13 +33681,13 @@
         <v>225.9270760227193</v>
       </c>
       <c r="R35" t="n">
-        <v>131.4200941228798</v>
+        <v>131.4200941228799</v>
       </c>
       <c r="S35" t="n">
-        <v>47.67453317931466</v>
+        <v>47.67453317931468</v>
       </c>
       <c r="T35" t="n">
-        <v>9.158322281621496</v>
+        <v>9.158322281621498</v>
       </c>
       <c r="U35" t="n">
         <v>0.1673708241073031</v>
@@ -33733,43 +33733,43 @@
         <v>10.81096114123999</v>
       </c>
       <c r="I36" t="n">
-        <v>38.5404382192252</v>
+        <v>38.54043821922522</v>
       </c>
       <c r="J36" t="n">
         <v>105.7579082395325</v>
       </c>
       <c r="K36" t="n">
-        <v>180.7571100531483</v>
+        <v>180.7571100531484</v>
       </c>
       <c r="L36" t="n">
-        <v>243.0502412793304</v>
+        <v>243.0502412793305</v>
       </c>
       <c r="M36" t="n">
-        <v>283.628167633712</v>
+        <v>283.6281676337121</v>
       </c>
       <c r="N36" t="n">
-        <v>291.1349612690236</v>
+        <v>291.1349612690237</v>
       </c>
       <c r="O36" t="n">
-        <v>266.3316117297209</v>
+        <v>266.331611729721</v>
       </c>
       <c r="P36" t="n">
-        <v>213.754598622755</v>
+        <v>213.7545986227551</v>
       </c>
       <c r="Q36" t="n">
         <v>142.889288399023</v>
       </c>
       <c r="R36" t="n">
-        <v>69.50043865367543</v>
+        <v>69.50043865367545</v>
       </c>
       <c r="S36" t="n">
-        <v>20.79219819852466</v>
+        <v>20.79219819852467</v>
       </c>
       <c r="T36" t="n">
         <v>4.511931557129675</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07364414946348767</v>
+        <v>0.07364414946348768</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,22 +33806,22 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9384598718516566</v>
+        <v>0.9384598718516568</v>
       </c>
       <c r="H37" t="n">
-        <v>8.343761406099279</v>
+        <v>8.343761406099281</v>
       </c>
       <c r="I37" t="n">
-        <v>28.22204778259346</v>
+        <v>28.22204778259347</v>
       </c>
       <c r="J37" t="n">
-        <v>66.34911293991212</v>
+        <v>66.34911293991213</v>
       </c>
       <c r="K37" t="n">
-        <v>109.0319742024015</v>
+        <v>109.0319742024016</v>
       </c>
       <c r="L37" t="n">
-        <v>139.5233885841999</v>
+        <v>139.5233885842</v>
       </c>
       <c r="M37" t="n">
         <v>147.1078506394374</v>
@@ -33836,19 +33836,19 @@
         <v>113.5024557737676</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.58321708750555</v>
+        <v>78.58321708750556</v>
       </c>
       <c r="R37" t="n">
-        <v>42.19656841980266</v>
+        <v>42.19656841980267</v>
       </c>
       <c r="S37" t="n">
         <v>16.35479613036023</v>
       </c>
       <c r="T37" t="n">
-        <v>4.009783088820713</v>
+        <v>4.009783088820714</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05118872028281769</v>
+        <v>0.0511887202828177</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,7 +33891,7 @@
         <v>21.42608065486148</v>
       </c>
       <c r="I38" t="n">
-        <v>80.65704620496011</v>
+        <v>80.65704620496014</v>
       </c>
       <c r="J38" t="n">
         <v>177.5673685322154</v>
@@ -33900,13 +33900,13 @@
         <v>266.1274558379922</v>
       </c>
       <c r="L38" t="n">
-        <v>330.1546415664157</v>
+        <v>330.1546415664158</v>
       </c>
       <c r="M38" t="n">
-        <v>367.3606527316438</v>
+        <v>367.3606527316439</v>
       </c>
       <c r="N38" t="n">
-        <v>373.3049321565798</v>
+        <v>373.3049321565799</v>
       </c>
       <c r="O38" t="n">
         <v>352.5012617538674</v>
@@ -33918,13 +33918,13 @@
         <v>225.9270760227193</v>
       </c>
       <c r="R38" t="n">
-        <v>131.4200941228798</v>
+        <v>131.4200941228799</v>
       </c>
       <c r="S38" t="n">
-        <v>47.67453317931466</v>
+        <v>47.67453317931468</v>
       </c>
       <c r="T38" t="n">
-        <v>9.158322281621496</v>
+        <v>9.158322281621498</v>
       </c>
       <c r="U38" t="n">
         <v>0.1673708241073031</v>
@@ -33970,43 +33970,43 @@
         <v>10.81096114123999</v>
       </c>
       <c r="I39" t="n">
-        <v>38.5404382192252</v>
+        <v>38.54043821922522</v>
       </c>
       <c r="J39" t="n">
         <v>105.7579082395325</v>
       </c>
       <c r="K39" t="n">
-        <v>180.7571100531483</v>
+        <v>180.7571100531484</v>
       </c>
       <c r="L39" t="n">
-        <v>243.0502412793304</v>
+        <v>243.0502412793305</v>
       </c>
       <c r="M39" t="n">
-        <v>283.628167633712</v>
+        <v>283.6281676337121</v>
       </c>
       <c r="N39" t="n">
-        <v>291.1349612690236</v>
+        <v>291.1349612690237</v>
       </c>
       <c r="O39" t="n">
-        <v>266.3316117297209</v>
+        <v>266.331611729721</v>
       </c>
       <c r="P39" t="n">
-        <v>213.754598622755</v>
+        <v>213.7545986227551</v>
       </c>
       <c r="Q39" t="n">
         <v>142.889288399023</v>
       </c>
       <c r="R39" t="n">
-        <v>69.50043865367543</v>
+        <v>69.50043865367545</v>
       </c>
       <c r="S39" t="n">
-        <v>20.79219819852466</v>
+        <v>20.79219819852467</v>
       </c>
       <c r="T39" t="n">
         <v>4.511931557129675</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07364414946348767</v>
+        <v>0.07364414946348768</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,22 +34043,22 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9384598718516566</v>
+        <v>0.9384598718516568</v>
       </c>
       <c r="H40" t="n">
-        <v>8.343761406099279</v>
+        <v>8.343761406099281</v>
       </c>
       <c r="I40" t="n">
-        <v>28.22204778259346</v>
+        <v>28.22204778259347</v>
       </c>
       <c r="J40" t="n">
-        <v>66.34911293991212</v>
+        <v>66.34911293991213</v>
       </c>
       <c r="K40" t="n">
-        <v>109.0319742024015</v>
+        <v>109.0319742024016</v>
       </c>
       <c r="L40" t="n">
-        <v>139.5233885841999</v>
+        <v>139.5233885842</v>
       </c>
       <c r="M40" t="n">
         <v>147.1078506394374</v>
@@ -34073,19 +34073,19 @@
         <v>113.5024557737676</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.58321708750555</v>
+        <v>78.58321708750556</v>
       </c>
       <c r="R40" t="n">
-        <v>42.19656841980266</v>
+        <v>42.19656841980267</v>
       </c>
       <c r="S40" t="n">
         <v>16.35479613036023</v>
       </c>
       <c r="T40" t="n">
-        <v>4.009783088820713</v>
+        <v>4.009783088820714</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05118872028281769</v>
+        <v>0.0511887202828177</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>21.42608065486148</v>
       </c>
       <c r="I41" t="n">
-        <v>80.65704620496011</v>
+        <v>80.65704620496014</v>
       </c>
       <c r="J41" t="n">
         <v>177.5673685322154</v>
@@ -34137,13 +34137,13 @@
         <v>266.1274558379922</v>
       </c>
       <c r="L41" t="n">
-        <v>330.1546415664157</v>
+        <v>330.1546415664158</v>
       </c>
       <c r="M41" t="n">
-        <v>367.3606527316438</v>
+        <v>367.3606527316439</v>
       </c>
       <c r="N41" t="n">
-        <v>373.3049321565798</v>
+        <v>373.3049321565799</v>
       </c>
       <c r="O41" t="n">
         <v>352.5012617538674</v>
@@ -34155,13 +34155,13 @@
         <v>225.9270760227193</v>
       </c>
       <c r="R41" t="n">
-        <v>131.4200941228798</v>
+        <v>131.4200941228799</v>
       </c>
       <c r="S41" t="n">
-        <v>47.67453317931466</v>
+        <v>47.67453317931468</v>
       </c>
       <c r="T41" t="n">
-        <v>9.158322281621496</v>
+        <v>9.158322281621498</v>
       </c>
       <c r="U41" t="n">
         <v>0.1673708241073031</v>
@@ -34207,43 +34207,43 @@
         <v>10.81096114123999</v>
       </c>
       <c r="I42" t="n">
-        <v>38.5404382192252</v>
+        <v>38.54043821922522</v>
       </c>
       <c r="J42" t="n">
         <v>105.7579082395325</v>
       </c>
       <c r="K42" t="n">
-        <v>180.7571100531483</v>
+        <v>180.7571100531484</v>
       </c>
       <c r="L42" t="n">
-        <v>243.0502412793304</v>
+        <v>243.0502412793305</v>
       </c>
       <c r="M42" t="n">
-        <v>283.628167633712</v>
+        <v>283.6281676337121</v>
       </c>
       <c r="N42" t="n">
-        <v>291.1349612690236</v>
+        <v>291.1349612690237</v>
       </c>
       <c r="O42" t="n">
-        <v>266.3316117297209</v>
+        <v>266.331611729721</v>
       </c>
       <c r="P42" t="n">
-        <v>213.754598622755</v>
+        <v>213.7545986227551</v>
       </c>
       <c r="Q42" t="n">
         <v>142.889288399023</v>
       </c>
       <c r="R42" t="n">
-        <v>69.50043865367543</v>
+        <v>69.50043865367545</v>
       </c>
       <c r="S42" t="n">
-        <v>20.79219819852466</v>
+        <v>20.79219819852467</v>
       </c>
       <c r="T42" t="n">
         <v>4.511931557129675</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07364414946348767</v>
+        <v>0.07364414946348768</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,22 +34280,22 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9384598718516566</v>
+        <v>0.9384598718516568</v>
       </c>
       <c r="H43" t="n">
-        <v>8.343761406099279</v>
+        <v>8.343761406099281</v>
       </c>
       <c r="I43" t="n">
-        <v>28.22204778259346</v>
+        <v>28.22204778259347</v>
       </c>
       <c r="J43" t="n">
-        <v>66.34911293991212</v>
+        <v>66.34911293991213</v>
       </c>
       <c r="K43" t="n">
-        <v>109.0319742024015</v>
+        <v>109.0319742024016</v>
       </c>
       <c r="L43" t="n">
-        <v>139.5233885841999</v>
+        <v>139.5233885842</v>
       </c>
       <c r="M43" t="n">
         <v>147.1078506394374</v>
@@ -34310,19 +34310,19 @@
         <v>113.5024557737676</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.58321708750555</v>
+        <v>78.58321708750556</v>
       </c>
       <c r="R43" t="n">
-        <v>42.19656841980266</v>
+        <v>42.19656841980267</v>
       </c>
       <c r="S43" t="n">
         <v>16.35479613036023</v>
       </c>
       <c r="T43" t="n">
-        <v>4.009783088820713</v>
+        <v>4.009783088820714</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05118872028281769</v>
+        <v>0.0511887202828177</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>21.42608065486148</v>
       </c>
       <c r="I44" t="n">
-        <v>80.65704620496011</v>
+        <v>80.65704620496014</v>
       </c>
       <c r="J44" t="n">
         <v>177.5673685322154</v>
@@ -34374,13 +34374,13 @@
         <v>266.1274558379922</v>
       </c>
       <c r="L44" t="n">
-        <v>330.1546415664157</v>
+        <v>330.1546415664158</v>
       </c>
       <c r="M44" t="n">
-        <v>367.3606527316438</v>
+        <v>367.3606527316439</v>
       </c>
       <c r="N44" t="n">
-        <v>373.3049321565798</v>
+        <v>373.3049321565799</v>
       </c>
       <c r="O44" t="n">
         <v>352.5012617538674</v>
@@ -34392,13 +34392,13 @@
         <v>225.9270760227193</v>
       </c>
       <c r="R44" t="n">
-        <v>131.4200941228798</v>
+        <v>131.4200941228799</v>
       </c>
       <c r="S44" t="n">
-        <v>47.67453317931466</v>
+        <v>47.67453317931468</v>
       </c>
       <c r="T44" t="n">
-        <v>9.158322281621496</v>
+        <v>9.158322281621498</v>
       </c>
       <c r="U44" t="n">
         <v>0.1673708241073031</v>
@@ -34444,43 +34444,43 @@
         <v>10.81096114123999</v>
       </c>
       <c r="I45" t="n">
-        <v>38.5404382192252</v>
+        <v>38.54043821922522</v>
       </c>
       <c r="J45" t="n">
         <v>105.7579082395325</v>
       </c>
       <c r="K45" t="n">
-        <v>180.7571100531483</v>
+        <v>180.7571100531484</v>
       </c>
       <c r="L45" t="n">
-        <v>243.0502412793304</v>
+        <v>243.0502412793305</v>
       </c>
       <c r="M45" t="n">
-        <v>283.628167633712</v>
+        <v>283.6281676337121</v>
       </c>
       <c r="N45" t="n">
-        <v>291.1349612690236</v>
+        <v>291.1349612690237</v>
       </c>
       <c r="O45" t="n">
-        <v>266.3316117297209</v>
+        <v>266.331611729721</v>
       </c>
       <c r="P45" t="n">
-        <v>213.754598622755</v>
+        <v>213.7545986227551</v>
       </c>
       <c r="Q45" t="n">
         <v>142.889288399023</v>
       </c>
       <c r="R45" t="n">
-        <v>69.50043865367543</v>
+        <v>69.50043865367545</v>
       </c>
       <c r="S45" t="n">
-        <v>20.79219819852466</v>
+        <v>20.79219819852467</v>
       </c>
       <c r="T45" t="n">
         <v>4.511931557129675</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07364414946348767</v>
+        <v>0.07364414946348768</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,22 +34517,22 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9384598718516566</v>
+        <v>0.9384598718516568</v>
       </c>
       <c r="H46" t="n">
-        <v>8.343761406099279</v>
+        <v>8.343761406099281</v>
       </c>
       <c r="I46" t="n">
-        <v>28.22204778259346</v>
+        <v>28.22204778259347</v>
       </c>
       <c r="J46" t="n">
-        <v>66.34911293991212</v>
+        <v>66.34911293991213</v>
       </c>
       <c r="K46" t="n">
-        <v>109.0319742024015</v>
+        <v>109.0319742024016</v>
       </c>
       <c r="L46" t="n">
-        <v>139.5233885841999</v>
+        <v>139.5233885842</v>
       </c>
       <c r="M46" t="n">
         <v>147.1078506394374</v>
@@ -34547,19 +34547,19 @@
         <v>113.5024557737676</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.58321708750555</v>
+        <v>78.58321708750556</v>
       </c>
       <c r="R46" t="n">
-        <v>42.19656841980266</v>
+        <v>42.19656841980267</v>
       </c>
       <c r="S46" t="n">
         <v>16.35479613036023</v>
       </c>
       <c r="T46" t="n">
-        <v>4.009783088820713</v>
+        <v>4.009783088820714</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05118872028281769</v>
+        <v>0.0511887202828177</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34871,10 +34871,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35494,13 +35494,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35734,7 +35734,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N15" t="n">
         <v>559.3197334338903</v>
@@ -35746,7 +35746,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35974,7 +35974,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>439.8839133355128</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36211,7 +36211,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
@@ -36366,10 +36366,10 @@
         <v>512.049441146879</v>
       </c>
       <c r="M23" t="n">
-        <v>586.5279529972036</v>
+        <v>586.5279529972037</v>
       </c>
       <c r="N23" t="n">
-        <v>581.238792971973</v>
+        <v>581.2387929719732</v>
       </c>
       <c r="O23" t="n">
         <v>503.203231594926</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>105.0113169132747</v>
       </c>
       <c r="K24" t="n">
-        <v>42.9156710787893</v>
+        <v>307.3809080913679</v>
       </c>
       <c r="L24" t="n">
-        <v>475.3362068029154</v>
+        <v>475.3362068029155</v>
       </c>
       <c r="M24" t="n">
-        <v>607.1991974616935</v>
+        <v>452.900906089855</v>
       </c>
       <c r="N24" t="n">
-        <v>639.1356235292437</v>
+        <v>159.7932491856904</v>
       </c>
       <c r="O24" t="n">
-        <v>517.5976865620059</v>
+        <v>517.5976865620061</v>
       </c>
       <c r="P24" t="n">
-        <v>344.1561357946725</v>
+        <v>398.242959848362</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.907514313001457</v>
+        <v>212.9848020488506</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>86.76248237651868</v>
+        <v>86.7624823765187</v>
       </c>
       <c r="L25" t="n">
         <v>167.1134138445161</v>
@@ -36527,10 +36527,10 @@
         <v>186.691727601278</v>
       </c>
       <c r="N25" t="n">
-        <v>187.7421271326735</v>
+        <v>187.7421271326736</v>
       </c>
       <c r="O25" t="n">
-        <v>157.2321650735811</v>
+        <v>157.2321650735812</v>
       </c>
       <c r="P25" t="n">
         <v>110.7810150386611</v>
@@ -36603,10 +36603,10 @@
         <v>512.049441146879</v>
       </c>
       <c r="M26" t="n">
-        <v>586.5279529972036</v>
+        <v>586.5279529972037</v>
       </c>
       <c r="N26" t="n">
-        <v>581.238792971973</v>
+        <v>581.2387929719732</v>
       </c>
       <c r="O26" t="n">
         <v>503.203231594926</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>105.0113169132747</v>
       </c>
       <c r="K27" t="n">
-        <v>42.9156710787893</v>
+        <v>307.3809080913679</v>
       </c>
       <c r="L27" t="n">
-        <v>421.2493827492261</v>
+        <v>475.3362068029155</v>
       </c>
       <c r="M27" t="n">
-        <v>607.1991974616935</v>
+        <v>452.900906089855</v>
       </c>
       <c r="N27" t="n">
-        <v>639.1356235292437</v>
+        <v>159.7932491856904</v>
       </c>
       <c r="O27" t="n">
-        <v>517.5976865620059</v>
+        <v>517.5976865620061</v>
       </c>
       <c r="P27" t="n">
-        <v>398.2429598483619</v>
+        <v>398.242959848362</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.907514313001457</v>
+        <v>212.9848020488506</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>86.76248237651868</v>
+        <v>86.7624823765187</v>
       </c>
       <c r="L28" t="n">
         <v>167.1134138445161</v>
@@ -36764,10 +36764,10 @@
         <v>186.691727601278</v>
       </c>
       <c r="N28" t="n">
-        <v>187.7421271326735</v>
+        <v>187.7421271326736</v>
       </c>
       <c r="O28" t="n">
-        <v>157.2321650735811</v>
+        <v>157.2321650735812</v>
       </c>
       <c r="P28" t="n">
         <v>110.7810150386611</v>
@@ -36840,10 +36840,10 @@
         <v>512.049441146879</v>
       </c>
       <c r="M29" t="n">
-        <v>586.5279529972036</v>
+        <v>586.5279529972037</v>
       </c>
       <c r="N29" t="n">
-        <v>581.238792971973</v>
+        <v>581.2387929719732</v>
       </c>
       <c r="O29" t="n">
         <v>503.203231594926</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>105.0113169132747</v>
       </c>
       <c r="K30" t="n">
         <v>307.3809080913679</v>
       </c>
       <c r="L30" t="n">
-        <v>475.3362068029154</v>
+        <v>475.3362068029155</v>
       </c>
       <c r="M30" t="n">
-        <v>607.1991974616935</v>
+        <v>141.4941337116938</v>
       </c>
       <c r="N30" t="n">
-        <v>159.7932491856903</v>
+        <v>471.2000215638516</v>
       </c>
       <c r="O30" t="n">
-        <v>517.5976865620059</v>
+        <v>517.5976865620061</v>
       </c>
       <c r="P30" t="n">
-        <v>398.2429598483619</v>
+        <v>398.242959848362</v>
       </c>
       <c r="Q30" t="n">
-        <v>163.6978275902874</v>
+        <v>212.9848020488506</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>86.76248237651868</v>
+        <v>86.7624823765187</v>
       </c>
       <c r="L31" t="n">
         <v>167.1134138445161</v>
@@ -37001,10 +37001,10 @@
         <v>186.691727601278</v>
       </c>
       <c r="N31" t="n">
-        <v>187.7421271326735</v>
+        <v>187.7421271326736</v>
       </c>
       <c r="O31" t="n">
-        <v>157.2321650735811</v>
+        <v>157.2321650735812</v>
       </c>
       <c r="P31" t="n">
         <v>110.7810150386611</v>
@@ -37077,10 +37077,10 @@
         <v>512.049441146879</v>
       </c>
       <c r="M32" t="n">
-        <v>586.5279529972036</v>
+        <v>586.5279529972037</v>
       </c>
       <c r="N32" t="n">
-        <v>581.238792971973</v>
+        <v>581.2387929719732</v>
       </c>
       <c r="O32" t="n">
         <v>503.203231594926</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>105.0113169132747</v>
       </c>
       <c r="K33" t="n">
-        <v>149.5919045927103</v>
+        <v>307.3809080913679</v>
       </c>
       <c r="L33" t="n">
-        <v>104.4958614994562</v>
+        <v>475.3362068029155</v>
       </c>
       <c r="M33" t="n">
-        <v>607.1991974616935</v>
+        <v>141.4941337116938</v>
       </c>
       <c r="N33" t="n">
-        <v>639.1356235292437</v>
+        <v>471.2000215638516</v>
       </c>
       <c r="O33" t="n">
-        <v>517.5976865620059</v>
+        <v>517.5976865620061</v>
       </c>
       <c r="P33" t="n">
-        <v>398.2429598483619</v>
+        <v>398.242959848362</v>
       </c>
       <c r="Q33" t="n">
         <v>212.9848020488506</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>86.76248237651868</v>
+        <v>86.7624823765187</v>
       </c>
       <c r="L34" t="n">
         <v>167.1134138445161</v>
@@ -37238,10 +37238,10 @@
         <v>186.691727601278</v>
       </c>
       <c r="N34" t="n">
-        <v>187.7421271326735</v>
+        <v>187.7421271326736</v>
       </c>
       <c r="O34" t="n">
-        <v>157.2321650735811</v>
+        <v>157.2321650735812</v>
       </c>
       <c r="P34" t="n">
         <v>110.7810150386611</v>
@@ -37314,10 +37314,10 @@
         <v>512.049441146879</v>
       </c>
       <c r="M35" t="n">
-        <v>586.5279529972036</v>
+        <v>586.5279529972037</v>
       </c>
       <c r="N35" t="n">
-        <v>581.238792971973</v>
+        <v>581.2387929719732</v>
       </c>
       <c r="O35" t="n">
         <v>503.203231594926</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>105.0113169132747</v>
       </c>
       <c r="K36" t="n">
-        <v>42.9156710787893</v>
+        <v>307.3809080913679</v>
       </c>
       <c r="L36" t="n">
-        <v>421.2493827492262</v>
+        <v>475.3362068029155</v>
       </c>
       <c r="M36" t="n">
-        <v>607.1991974616935</v>
+        <v>452.900906089855</v>
       </c>
       <c r="N36" t="n">
-        <v>639.1356235292437</v>
+        <v>159.7932491856904</v>
       </c>
       <c r="O36" t="n">
-        <v>517.5976865620059</v>
+        <v>517.5976865620061</v>
       </c>
       <c r="P36" t="n">
-        <v>398.2429598483619</v>
+        <v>398.242959848362</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.907514313001457</v>
+        <v>212.9848020488506</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>86.76248237651868</v>
+        <v>86.7624823765187</v>
       </c>
       <c r="L37" t="n">
         <v>167.1134138445161</v>
@@ -37475,10 +37475,10 @@
         <v>186.691727601278</v>
       </c>
       <c r="N37" t="n">
-        <v>187.7421271326735</v>
+        <v>187.7421271326736</v>
       </c>
       <c r="O37" t="n">
-        <v>157.2321650735811</v>
+        <v>157.2321650735812</v>
       </c>
       <c r="P37" t="n">
         <v>110.7810150386611</v>
@@ -37551,10 +37551,10 @@
         <v>512.049441146879</v>
       </c>
       <c r="M38" t="n">
-        <v>586.5279529972036</v>
+        <v>586.5279529972037</v>
       </c>
       <c r="N38" t="n">
-        <v>581.238792971973</v>
+        <v>581.2387929719732</v>
       </c>
       <c r="O38" t="n">
         <v>503.203231594926</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>258.0939336328046</v>
+        <v>42.91567107878936</v>
       </c>
       <c r="L39" t="n">
-        <v>475.3362068029154</v>
+        <v>421.2493827492254</v>
       </c>
       <c r="M39" t="n">
-        <v>607.1991974616935</v>
+        <v>607.1991974616938</v>
       </c>
       <c r="N39" t="n">
-        <v>159.7932491856903</v>
+        <v>639.135623529244</v>
       </c>
       <c r="O39" t="n">
-        <v>517.5976865620059</v>
+        <v>517.5976865620061</v>
       </c>
       <c r="P39" t="n">
-        <v>398.2429598483619</v>
+        <v>398.242959848362</v>
       </c>
       <c r="Q39" t="n">
-        <v>212.9848020488506</v>
+        <v>2.907514313001485</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>86.76248237651868</v>
+        <v>86.7624823765187</v>
       </c>
       <c r="L40" t="n">
         <v>167.1134138445161</v>
@@ -37712,10 +37712,10 @@
         <v>186.691727601278</v>
       </c>
       <c r="N40" t="n">
-        <v>187.7421271326735</v>
+        <v>187.7421271326736</v>
       </c>
       <c r="O40" t="n">
-        <v>157.2321650735811</v>
+        <v>157.2321650735812</v>
       </c>
       <c r="P40" t="n">
         <v>110.7810150386611</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>165.618079177603</v>
+        <v>165.6180791776029</v>
       </c>
       <c r="K41" t="n">
         <v>370.1830173641764</v>
@@ -37788,10 +37788,10 @@
         <v>512.049441146879</v>
       </c>
       <c r="M41" t="n">
-        <v>586.5279529972036</v>
+        <v>586.5279529972037</v>
       </c>
       <c r="N41" t="n">
-        <v>581.238792971973</v>
+        <v>581.2387929719732</v>
       </c>
       <c r="O41" t="n">
         <v>503.203231594926</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>105.0113169132747</v>
       </c>
       <c r="K42" t="n">
-        <v>42.9156710787893</v>
+        <v>307.3809080913679</v>
       </c>
       <c r="L42" t="n">
-        <v>475.3362068029154</v>
+        <v>475.3362068029155</v>
       </c>
       <c r="M42" t="n">
-        <v>607.1991974616935</v>
+        <v>141.4941337116938</v>
       </c>
       <c r="N42" t="n">
-        <v>639.1356235292437</v>
+        <v>471.2000215638516</v>
       </c>
       <c r="O42" t="n">
-        <v>517.5976865620059</v>
+        <v>517.5976865620061</v>
       </c>
       <c r="P42" t="n">
-        <v>344.1561357946725</v>
+        <v>398.242959848362</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.907514313001457</v>
+        <v>212.9848020488506</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>86.76248237651868</v>
+        <v>86.7624823765187</v>
       </c>
       <c r="L43" t="n">
         <v>167.1134138445161</v>
@@ -37949,10 +37949,10 @@
         <v>186.691727601278</v>
       </c>
       <c r="N43" t="n">
-        <v>187.7421271326735</v>
+        <v>187.7421271326736</v>
       </c>
       <c r="O43" t="n">
-        <v>157.2321650735811</v>
+        <v>157.2321650735812</v>
       </c>
       <c r="P43" t="n">
         <v>110.7810150386611</v>
@@ -38025,13 +38025,13 @@
         <v>512.049441146879</v>
       </c>
       <c r="M44" t="n">
-        <v>586.5279529972036</v>
+        <v>586.5279529972037</v>
       </c>
       <c r="N44" t="n">
-        <v>581.238792971973</v>
+        <v>581.2387929719732</v>
       </c>
       <c r="O44" t="n">
-        <v>503.203231594926</v>
+        <v>503.2032315949257</v>
       </c>
       <c r="P44" t="n">
         <v>391.4173839182174</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>105.0113169132747</v>
       </c>
       <c r="K45" t="n">
         <v>307.3809080913679</v>
       </c>
       <c r="L45" t="n">
-        <v>104.4958614994562</v>
+        <v>475.3362068029155</v>
       </c>
       <c r="M45" t="n">
-        <v>607.1991974616935</v>
+        <v>452.900906089855</v>
       </c>
       <c r="N45" t="n">
-        <v>639.1356235292437</v>
+        <v>159.7932491856904</v>
       </c>
       <c r="O45" t="n">
-        <v>359.808683063348</v>
+        <v>517.5976865620061</v>
       </c>
       <c r="P45" t="n">
-        <v>398.2429598483619</v>
+        <v>398.242959848362</v>
       </c>
       <c r="Q45" t="n">
         <v>212.9848020488506</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>86.76248237651868</v>
+        <v>86.7624823765187</v>
       </c>
       <c r="L46" t="n">
         <v>167.1134138445161</v>
@@ -38186,10 +38186,10 @@
         <v>186.691727601278</v>
       </c>
       <c r="N46" t="n">
-        <v>187.7421271326735</v>
+        <v>187.7421271326736</v>
       </c>
       <c r="O46" t="n">
-        <v>157.2321650735811</v>
+        <v>157.2321650735812</v>
       </c>
       <c r="P46" t="n">
         <v>110.7810150386611</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_4_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_4_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1322311.172538932</v>
+        <v>1348711.897606053</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5996855.681156756</v>
+        <v>5996855.681156755</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>220.7462004161901</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>93.46210168103329</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>18.7734042169175</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>117.8916520813108</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>177.7342394167934</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I6" t="n">
         <v>61.42221998250818</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>30.54110646053108</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>328.3502413085465</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>181.3889767330367</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>30.54110646053131</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.46389722690827</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>413.784170020795</v>
@@ -1417,22 +1417,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>5.363399827271436</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>217.7892635222199</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>128.7835007017901</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>193.6051044699637</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>263.3364023249807</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,22 +1654,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1770,16 +1770,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>206.0978190620145</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>306.8133326045278</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>369.2930154140631</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>100.5344742103487</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>94.63926978364054</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>157.1894096127083</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>5.360031141996137</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2292,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>10.43941339835968</v>
+        <v>261.9025067912348</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>307.2065092331155</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>413.2106022137938</v>
@@ -2338,7 +2338,7 @@
         <v>318.0487214609057</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>53.08435045835505</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>18.44902381826981</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>138.6427462795847</v>
       </c>
       <c r="U25" t="n">
-        <v>114.1158076895348</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,19 +2557,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>139.049697835055</v>
       </c>
       <c r="E26" t="n">
-        <v>278.406274681187</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>161.3455364069306</v>
       </c>
       <c r="T26" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>142.5728023742849</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>223.9358063394608</v>
+        <v>47.36766792218147</v>
       </c>
       <c r="U28" t="n">
         <v>286.2678406362081</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2794,10 +2794,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>5.128441392934358</v>
+        <v>271.7589682983661</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>18.44902381826981</v>
       </c>
       <c r="S29" t="n">
-        <v>161.3455364069306</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>121.2408097264771</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>53.55762244236374</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,10 +3031,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>132.6071244844824</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3043,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>18.44902381826981</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>244.828185147818</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>135.0968229573668</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>193.5464728683679</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>170.5984428088249</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>207.7893348019851</v>
+        <v>170.9321867073258</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>53.55762244236377</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>17.96751605357011</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3505,13 +3505,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>20.44625986759351</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3553,19 +3553,19 @@
         <v>18.44902381826981</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T38" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>229.3058559250368</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>135.0968229573668</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>160.2742177432605</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>37.67612063459799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3745,22 +3745,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>182.2389725323063</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>413.2106022137938</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>129.8188433654458</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>129.6528706541027</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1158076895348</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>39.59898751724594</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3979,22 +3979,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>185.7333732285975</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I44" t="n">
         <v>129.8188433654458</v>
@@ -4024,25 +4024,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>18.44902381826981</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>4.576574036815991</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T44" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.1782820837292</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4140,13 +4140,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>53.55762244236376</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>45.78894203742831</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1610.120910258947</v>
+        <v>666.7503635877424</v>
       </c>
       <c r="C2" t="n">
-        <v>1241.158393318536</v>
+        <v>297.7878466473307</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>297.7878466473307</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>297.7878466473307</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>290.8423458981272</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>276.9189418367181</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2547.714238234541</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2293.952452872632</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>1962.889565529061</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W2" t="n">
-        <v>1610.120910258947</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X2" t="n">
-        <v>1610.120910258947</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="Y2" t="n">
-        <v>1610.120910258947</v>
+        <v>1053.350203651864</v>
       </c>
     </row>
     <row r="3">
@@ -4391,43 +4391,43 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761945</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482876</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>377.5443364482876</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>377.5443364482876</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>230.6543889503772</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1078.595463490097</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C5" t="n">
-        <v>1078.595463490097</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D5" t="n">
-        <v>1078.595463490097</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
         <v>952.5674858910851</v>
@@ -4564,22 +4564,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2122.807401540017</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>2122.807401540017</v>
       </c>
       <c r="W5" t="n">
-        <v>1838.661061815299</v>
+        <v>2122.807401540017</v>
       </c>
       <c r="X5" t="n">
-        <v>1465.195303554219</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y5" t="n">
-        <v>1465.195303554219</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="6">
@@ -4628,43 +4628,43 @@
         <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F6" t="n">
         <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>764.7444956504007</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="C8" t="n">
-        <v>764.7444956504007</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D8" t="n">
-        <v>406.4787970436502</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W8" t="n">
-        <v>1528.349585887292</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="X8" t="n">
-        <v>1154.883827626212</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="Y8" t="n">
-        <v>764.7444956504007</v>
+        <v>2119.115747685226</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4907,7 +4907,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>857.6950425204218</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C11" t="n">
-        <v>857.6950425204218</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D11" t="n">
-        <v>857.6950425204218</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E11" t="n">
-        <v>471.9067899221776</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F11" t="n">
         <v>471.9067899221776</v>
@@ -5041,13 +5041,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2691.73151543512</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2691.73151543512</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2691.73151543512</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U11" t="n">
-        <v>2691.73151543512</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V11" t="n">
-        <v>2360.668628091549</v>
+        <v>2004.763483555427</v>
       </c>
       <c r="W11" t="n">
-        <v>2007.899972821435</v>
+        <v>2004.763483555427</v>
       </c>
       <c r="X11" t="n">
-        <v>1634.434214560355</v>
+        <v>1631.297725294347</v>
       </c>
       <c r="Y11" t="n">
-        <v>1244.294882584544</v>
+        <v>1241.158393318536</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018223</v>
@@ -5205,31 +5205,31 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
         <v>598.0446400632119</v>
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1611.619444146874</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="C14" t="n">
-        <v>1242.656927206462</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D14" t="n">
-        <v>884.3912285997114</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E14" t="n">
-        <v>884.3912285997114</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F14" t="n">
-        <v>473.4053238101039</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G14" t="n">
-        <v>473.4053238101039</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U14" t="n">
-        <v>2388.358616186807</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V14" t="n">
-        <v>2388.358616186807</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W14" t="n">
-        <v>2388.358616186807</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X14" t="n">
-        <v>2388.358616186807</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="Y14" t="n">
-        <v>1998.219284210995</v>
+        <v>1404.543549400789</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018223</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G16" t="n">
         <v>53.94298182036445</v>
@@ -5442,46 +5442,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V16" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036445</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>519.9493689922781</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1112.426648284105</v>
+        <v>840.8693068625894</v>
       </c>
       <c r="C17" t="n">
-        <v>1112.426648284105</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="D17" t="n">
-        <v>754.1609496773547</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E17" t="n">
-        <v>754.1609496773547</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F17" t="n">
-        <v>754.1609496773547</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
         <v>53.94298182036445</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U17" t="n">
-        <v>2169.72394915887</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V17" t="n">
-        <v>1838.661061815299</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W17" t="n">
-        <v>1485.892406545185</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X17" t="n">
-        <v>1112.426648284105</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y17" t="n">
-        <v>1112.426648284105</v>
+        <v>1150.78176403888</v>
       </c>
     </row>
     <row r="18">
@@ -5606,13 +5606,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I19" t="n">
         <v>53.94298182036445</v>
@@ -5703,22 +5703,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064344</v>
+        <v>626.5790102565873</v>
       </c>
       <c r="U19" t="n">
-        <v>438.9553738610024</v>
+        <v>626.5790102565873</v>
       </c>
       <c r="V19" t="n">
-        <v>438.9553738610024</v>
+        <v>626.5790102565873</v>
       </c>
       <c r="W19" t="n">
-        <v>149.5382038240418</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>337.1618402196266</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1345.623078162045</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="C20" t="n">
-        <v>976.6605612216329</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D20" t="n">
-        <v>618.3948626148824</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E20" t="n">
-        <v>618.3948626148824</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
@@ -5785,19 +5785,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U20" t="n">
-        <v>2247.308246834948</v>
+        <v>2241.894073964245</v>
       </c>
       <c r="V20" t="n">
-        <v>2247.308246834948</v>
+        <v>1910.831186620675</v>
       </c>
       <c r="W20" t="n">
-        <v>1894.539591564834</v>
+        <v>1558.062531350561</v>
       </c>
       <c r="X20" t="n">
-        <v>1894.539591564834</v>
+        <v>1184.596773089481</v>
       </c>
       <c r="Y20" t="n">
-        <v>1504.400259589023</v>
+        <v>1184.596773089481</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5940,16 +5940,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U22" t="n">
-        <v>490.2759348564911</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="V22" t="n">
-        <v>235.5914466506042</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="W22" t="n">
-        <v>235.5914466506042</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="X22" t="n">
         <v>235.5914466506042</v>
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1860.211634576879</v>
+        <v>2014.508490099052</v>
       </c>
       <c r="C23" t="n">
-        <v>1549.902029290904</v>
+        <v>2014.508490099052</v>
       </c>
       <c r="D23" t="n">
-        <v>1191.636330684153</v>
+        <v>1656.242791492301</v>
       </c>
       <c r="E23" t="n">
-        <v>805.8480780859089</v>
+        <v>1270.454538894057</v>
       </c>
       <c r="F23" t="n">
-        <v>805.8480780859089</v>
+        <v>859.4686341044494</v>
       </c>
       <c r="G23" t="n">
-        <v>388.4636314053091</v>
+        <v>442.0841874238496</v>
       </c>
       <c r="H23" t="n">
-        <v>67.2022965963135</v>
+        <v>120.822852614854</v>
       </c>
       <c r="I23" t="n">
         <v>67.2022965963135</v>
       </c>
       <c r="J23" t="n">
-        <v>231.1641949821404</v>
+        <v>231.1641949821403</v>
       </c>
       <c r="K23" t="n">
-        <v>597.6453821726751</v>
+        <v>597.6453821726749</v>
       </c>
       <c r="L23" t="n">
         <v>1104.574328908085</v>
       </c>
       <c r="M23" t="n">
-        <v>1685.237002375316</v>
+        <v>1685.237002375317</v>
       </c>
       <c r="N23" t="n">
         <v>2260.66340741757</v>
@@ -6013,28 +6013,28 @@
         <v>3360.114829815675</v>
       </c>
       <c r="R23" t="n">
-        <v>3341.479452221463</v>
+        <v>3360.114829815675</v>
       </c>
       <c r="S23" t="n">
-        <v>3341.479452221463</v>
+        <v>3360.114829815675</v>
       </c>
       <c r="T23" t="n">
-        <v>3341.479452221463</v>
+        <v>3144.016317409099</v>
       </c>
       <c r="U23" t="n">
-        <v>3341.479452221463</v>
+        <v>3144.016317409099</v>
       </c>
       <c r="V23" t="n">
-        <v>3010.416564877892</v>
+        <v>3144.016317409099</v>
       </c>
       <c r="W23" t="n">
-        <v>3010.416564877892</v>
+        <v>2791.247662138985</v>
       </c>
       <c r="X23" t="n">
-        <v>2636.950806616812</v>
+        <v>2791.247662138985</v>
       </c>
       <c r="Y23" t="n">
-        <v>2246.811474641001</v>
+        <v>2401.108330163173</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>67.2022965963135</v>
       </c>
       <c r="J24" t="n">
-        <v>171.1635003404554</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="K24" t="n">
-        <v>475.4705993509097</v>
+        <v>371.5093956067677</v>
       </c>
       <c r="L24" t="n">
-        <v>946.0534440857959</v>
+        <v>842.092240341654</v>
       </c>
       <c r="M24" t="n">
-        <v>1394.425341114752</v>
+        <v>1443.219445828731</v>
       </c>
       <c r="N24" t="n">
-        <v>1552.620657808586</v>
+        <v>2075.963713122682</v>
       </c>
       <c r="O24" t="n">
-        <v>2065.042367504972</v>
+        <v>2273.018882363463</v>
       </c>
       <c r="P24" t="n">
-        <v>2459.30289775485</v>
+        <v>2667.279412613341</v>
       </c>
       <c r="Q24" t="n">
         <v>2670.157851783212</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>67.2022965963135</v>
+        <v>235.942215269654</v>
       </c>
       <c r="C25" t="n">
-        <v>67.2022965963135</v>
+        <v>235.942215269654</v>
       </c>
       <c r="D25" t="n">
-        <v>67.2022965963135</v>
+        <v>235.942215269654</v>
       </c>
       <c r="E25" t="n">
-        <v>67.2022965963135</v>
+        <v>235.942215269654</v>
       </c>
       <c r="F25" t="n">
-        <v>67.2022965963135</v>
+        <v>235.942215269654</v>
       </c>
       <c r="G25" t="n">
         <v>67.2022965963135</v>
@@ -6177,22 +6177,22 @@
         <v>954.56199835287</v>
       </c>
       <c r="T25" t="n">
-        <v>954.56199835287</v>
+        <v>814.5188202926834</v>
       </c>
       <c r="U25" t="n">
-        <v>839.2935057371783</v>
+        <v>525.3593853066146</v>
       </c>
       <c r="V25" t="n">
-        <v>584.6090175312914</v>
+        <v>525.3593853066146</v>
       </c>
       <c r="W25" t="n">
-        <v>295.1918474943308</v>
+        <v>235.942215269654</v>
       </c>
       <c r="X25" t="n">
-        <v>67.2022965963135</v>
+        <v>235.942215269654</v>
       </c>
       <c r="Y25" t="n">
-        <v>67.2022965963135</v>
+        <v>235.942215269654</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1128.369177600259</v>
+        <v>1421.815140902195</v>
       </c>
       <c r="C26" t="n">
-        <v>759.4066606598474</v>
+        <v>1421.815140902195</v>
       </c>
       <c r="D26" t="n">
-        <v>759.4066606598474</v>
+        <v>1281.360900664765</v>
       </c>
       <c r="E26" t="n">
-        <v>478.188201385921</v>
+        <v>895.572648066521</v>
       </c>
       <c r="F26" t="n">
-        <v>67.2022965963135</v>
+        <v>484.5867432769134</v>
       </c>
       <c r="G26" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H26" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I26" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J26" t="n">
-        <v>231.1641949821403</v>
+        <v>231.1641949821405</v>
       </c>
       <c r="K26" t="n">
-        <v>597.645382172675</v>
+        <v>597.6453821726755</v>
       </c>
       <c r="L26" t="n">
-        <v>1104.574328908085</v>
+        <v>1104.574328908086</v>
       </c>
       <c r="M26" t="n">
         <v>1685.237002375317</v>
       </c>
       <c r="N26" t="n">
-        <v>2260.66340741757</v>
+        <v>2260.663407417571</v>
       </c>
       <c r="O26" t="n">
-        <v>2758.834606696547</v>
+        <v>2758.834606696548</v>
       </c>
       <c r="P26" t="n">
-        <v>3146.337816775582</v>
+        <v>3146.337816775583</v>
       </c>
       <c r="Q26" t="n">
         <v>3360.114829815675</v>
@@ -6256,22 +6256,22 @@
         <v>3178.504162921533</v>
       </c>
       <c r="T26" t="n">
-        <v>2962.405650514957</v>
+        <v>3178.504162921533</v>
       </c>
       <c r="U26" t="n">
-        <v>2962.405650514957</v>
+        <v>2924.788726473322</v>
       </c>
       <c r="V26" t="n">
-        <v>2631.342763171387</v>
+        <v>2924.788726473322</v>
       </c>
       <c r="W26" t="n">
-        <v>2278.574107901272</v>
+        <v>2572.020071203208</v>
       </c>
       <c r="X26" t="n">
-        <v>1905.108349640193</v>
+        <v>2198.554312942128</v>
       </c>
       <c r="Y26" t="n">
-        <v>1514.969017664381</v>
+        <v>1808.414980966316</v>
       </c>
     </row>
     <row r="27">
@@ -6296,28 +6296,28 @@
         <v>358.6212903526892</v>
       </c>
       <c r="G27" t="n">
-        <v>221.0211629876734</v>
+        <v>221.0211629876735</v>
       </c>
       <c r="H27" t="n">
-        <v>118.572190164182</v>
+        <v>118.5721901641821</v>
       </c>
       <c r="I27" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J27" t="n">
-        <v>171.1635003404554</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="K27" t="n">
-        <v>475.4705993509097</v>
+        <v>371.5093956067677</v>
       </c>
       <c r="L27" t="n">
-        <v>946.0534440857959</v>
+        <v>842.092240341654</v>
       </c>
       <c r="M27" t="n">
-        <v>1394.425341114752</v>
+        <v>1443.219445828731</v>
       </c>
       <c r="N27" t="n">
-        <v>1552.620657808586</v>
+        <v>1601.414762522564</v>
       </c>
       <c r="O27" t="n">
         <v>2065.042367504972</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>67.2022965963135</v>
+        <v>215.1153901787066</v>
       </c>
       <c r="C28" t="n">
-        <v>67.2022965963135</v>
+        <v>215.1153901787066</v>
       </c>
       <c r="D28" t="n">
-        <v>67.2022965963135</v>
+        <v>215.1153901787066</v>
       </c>
       <c r="E28" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="F28" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="G28" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H28" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I28" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J28" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="K28" t="n">
         <v>153.097154149067</v>
@@ -6414,22 +6414,22 @@
         <v>954.56199835287</v>
       </c>
       <c r="T28" t="n">
-        <v>728.3642141715965</v>
+        <v>906.7158691385453</v>
       </c>
       <c r="U28" t="n">
-        <v>439.2047791855277</v>
+        <v>617.5564341524764</v>
       </c>
       <c r="V28" t="n">
-        <v>439.2047791855277</v>
+        <v>617.5564341524764</v>
       </c>
       <c r="W28" t="n">
-        <v>439.2047791855277</v>
+        <v>617.5564341524764</v>
       </c>
       <c r="X28" t="n">
-        <v>211.2152282875103</v>
+        <v>617.5564341524764</v>
       </c>
       <c r="Y28" t="n">
-        <v>211.2152282875103</v>
+        <v>396.7638550089463</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1227.422396422163</v>
+        <v>1507.442979306765</v>
       </c>
       <c r="C29" t="n">
-        <v>1227.422396422163</v>
+        <v>1138.480462366353</v>
       </c>
       <c r="D29" t="n">
-        <v>869.1566978154121</v>
+        <v>1138.480462366353</v>
       </c>
       <c r="E29" t="n">
-        <v>483.3684452171679</v>
+        <v>752.692209768109</v>
       </c>
       <c r="F29" t="n">
-        <v>72.38254042756034</v>
+        <v>341.7063049785015</v>
       </c>
       <c r="G29" t="n">
         <v>67.20229659631352</v>
@@ -6490,25 +6490,25 @@
         <v>3341.479452221463</v>
       </c>
       <c r="S29" t="n">
-        <v>3178.504162921533</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="T29" t="n">
-        <v>2962.405650514958</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="U29" t="n">
-        <v>2708.690214066747</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="V29" t="n">
-        <v>2377.627326723176</v>
+        <v>3010.416564877893</v>
       </c>
       <c r="W29" t="n">
-        <v>2377.627326723176</v>
+        <v>2657.647909607778</v>
       </c>
       <c r="X29" t="n">
-        <v>2004.161568462096</v>
+        <v>2284.182151346698</v>
       </c>
       <c r="Y29" t="n">
-        <v>1614.022236486284</v>
+        <v>1894.042819370887</v>
       </c>
     </row>
     <row r="30">
@@ -6542,16 +6542,16 @@
         <v>67.20229659631352</v>
       </c>
       <c r="J30" t="n">
-        <v>171.1635003404554</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="K30" t="n">
-        <v>475.4705993509097</v>
+        <v>371.5093956067677</v>
       </c>
       <c r="L30" t="n">
-        <v>946.0534440857959</v>
+        <v>842.092240341654</v>
       </c>
       <c r="M30" t="n">
-        <v>1086.132636460373</v>
+        <v>1394.425341114752</v>
       </c>
       <c r="N30" t="n">
         <v>1552.620657808586</v>
@@ -6654,16 +6654,16 @@
         <v>954.56199835287</v>
       </c>
       <c r="U31" t="n">
-        <v>832.0965339826911</v>
+        <v>665.4025633668011</v>
       </c>
       <c r="V31" t="n">
-        <v>577.4120457768042</v>
+        <v>410.7180751609143</v>
       </c>
       <c r="W31" t="n">
-        <v>287.9948757398436</v>
+        <v>121.3009051239537</v>
       </c>
       <c r="X31" t="n">
-        <v>287.9948757398436</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="Y31" t="n">
         <v>67.20229659631352</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1591.204669531327</v>
+        <v>1736.568825862127</v>
       </c>
       <c r="C32" t="n">
-        <v>1222.242152590916</v>
+        <v>1736.568825862127</v>
       </c>
       <c r="D32" t="n">
-        <v>863.9764539841653</v>
+        <v>1602.622235473761</v>
       </c>
       <c r="E32" t="n">
-        <v>478.188201385921</v>
+        <v>1216.833982875517</v>
       </c>
       <c r="F32" t="n">
-        <v>67.20229659631352</v>
+        <v>805.8480780859089</v>
       </c>
       <c r="G32" t="n">
-        <v>67.20229659631352</v>
+        <v>388.4636314053091</v>
       </c>
       <c r="H32" t="n">
         <v>67.20229659631352</v>
@@ -6700,22 +6700,22 @@
         <v>67.20229659631352</v>
       </c>
       <c r="J32" t="n">
-        <v>231.1641949821405</v>
+        <v>231.1641949821404</v>
       </c>
       <c r="K32" t="n">
-        <v>597.6453821726755</v>
+        <v>597.6453821726751</v>
       </c>
       <c r="L32" t="n">
-        <v>1104.574328908086</v>
+        <v>1104.574328908085</v>
       </c>
       <c r="M32" t="n">
-        <v>1685.237002375317</v>
+        <v>1685.237002375316</v>
       </c>
       <c r="N32" t="n">
-        <v>2260.663407417571</v>
+        <v>2260.66340741757</v>
       </c>
       <c r="O32" t="n">
-        <v>2758.834606696548</v>
+        <v>2758.834606696547</v>
       </c>
       <c r="P32" t="n">
         <v>3146.337816775583</v>
@@ -6724,28 +6724,28 @@
         <v>3360.114829815675</v>
       </c>
       <c r="R32" t="n">
-        <v>3341.479452221463</v>
+        <v>3360.114829815675</v>
       </c>
       <c r="S32" t="n">
-        <v>3341.479452221463</v>
+        <v>3197.139540515745</v>
       </c>
       <c r="T32" t="n">
-        <v>3341.479452221463</v>
+        <v>3197.139540515745</v>
       </c>
       <c r="U32" t="n">
-        <v>3341.479452221463</v>
+        <v>3197.139540515745</v>
       </c>
       <c r="V32" t="n">
-        <v>3094.178255102455</v>
+        <v>2866.076653172175</v>
       </c>
       <c r="W32" t="n">
-        <v>2741.409599832341</v>
+        <v>2513.30799790206</v>
       </c>
       <c r="X32" t="n">
-        <v>2367.943841571261</v>
+        <v>2513.30799790206</v>
       </c>
       <c r="Y32" t="n">
-        <v>1977.804509595449</v>
+        <v>2123.168665926249</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>67.20229659631352</v>
       </c>
       <c r="J33" t="n">
-        <v>171.1635003404554</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="K33" t="n">
-        <v>475.4705993509097</v>
+        <v>371.5093956067677</v>
       </c>
       <c r="L33" t="n">
-        <v>946.0534440857959</v>
+        <v>842.092240341654</v>
       </c>
       <c r="M33" t="n">
-        <v>1086.132636460373</v>
+        <v>1443.219445828731</v>
       </c>
       <c r="N33" t="n">
-        <v>1552.620657808586</v>
+        <v>2075.963713122682</v>
       </c>
       <c r="O33" t="n">
-        <v>2065.042367504972</v>
+        <v>2198.461726735106</v>
       </c>
       <c r="P33" t="n">
-        <v>2459.30289775485</v>
+        <v>2592.722256984984</v>
       </c>
       <c r="Q33" t="n">
         <v>2670.157851783212</v>
@@ -6882,28 +6882,28 @@
         <v>954.56199835287</v>
       </c>
       <c r="R34" t="n">
-        <v>954.56199835287</v>
+        <v>818.1005610221964</v>
       </c>
       <c r="S34" t="n">
-        <v>954.56199835287</v>
+        <v>818.1005610221964</v>
       </c>
       <c r="T34" t="n">
-        <v>759.0605106070439</v>
+        <v>818.1005610221964</v>
       </c>
       <c r="U34" t="n">
-        <v>759.0605106070439</v>
+        <v>528.9411260361276</v>
       </c>
       <c r="V34" t="n">
-        <v>759.0605106070439</v>
+        <v>528.9411260361276</v>
       </c>
       <c r="W34" t="n">
-        <v>469.6433405700833</v>
+        <v>239.523955999167</v>
       </c>
       <c r="X34" t="n">
-        <v>469.6433405700833</v>
+        <v>239.523955999167</v>
       </c>
       <c r="Y34" t="n">
-        <v>248.8507614265532</v>
+        <v>67.20229659631352</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1650.323417605177</v>
+        <v>1591.204669531327</v>
       </c>
       <c r="C35" t="n">
-        <v>1281.360900664765</v>
+        <v>1222.242152590916</v>
       </c>
       <c r="D35" t="n">
-        <v>1281.360900664765</v>
+        <v>863.9764539841653</v>
       </c>
       <c r="E35" t="n">
-        <v>895.5726480665209</v>
+        <v>478.188201385921</v>
       </c>
       <c r="F35" t="n">
-        <v>484.5867432769133</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="G35" t="n">
         <v>67.2022965963135</v>
@@ -6967,22 +6967,22 @@
         <v>3341.479452221463</v>
       </c>
       <c r="T35" t="n">
-        <v>3341.479452221463</v>
+        <v>3125.380939814887</v>
       </c>
       <c r="U35" t="n">
-        <v>3341.479452221463</v>
+        <v>2871.665503366676</v>
       </c>
       <c r="V35" t="n">
-        <v>3010.416564877892</v>
+        <v>2540.602616023105</v>
       </c>
       <c r="W35" t="n">
-        <v>2800.52834790619</v>
+        <v>2367.943841571261</v>
       </c>
       <c r="X35" t="n">
-        <v>2427.06258964511</v>
+        <v>2367.943841571261</v>
       </c>
       <c r="Y35" t="n">
-        <v>2036.923257669298</v>
+        <v>1977.804509595449</v>
       </c>
     </row>
     <row r="36">
@@ -7016,13 +7016,13 @@
         <v>67.2022965963135</v>
       </c>
       <c r="J36" t="n">
-        <v>171.1635003404554</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="K36" t="n">
-        <v>475.4705993509097</v>
+        <v>371.5093956067677</v>
       </c>
       <c r="L36" t="n">
-        <v>946.0534440857959</v>
+        <v>842.092240341654</v>
       </c>
       <c r="M36" t="n">
         <v>1394.425341114752</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>67.2022965963135</v>
+        <v>533.9719482643828</v>
       </c>
       <c r="C37" t="n">
-        <v>67.2022965963135</v>
+        <v>533.9719482643828</v>
       </c>
       <c r="D37" t="n">
-        <v>67.2022965963135</v>
+        <v>383.8553088520471</v>
       </c>
       <c r="E37" t="n">
-        <v>67.2022965963135</v>
+        <v>235.942215269654</v>
       </c>
       <c r="F37" t="n">
-        <v>67.2022965963135</v>
+        <v>235.942215269654</v>
       </c>
       <c r="G37" t="n">
         <v>67.2022965963135</v>
@@ -7125,22 +7125,22 @@
         <v>954.56199835287</v>
       </c>
       <c r="T37" t="n">
-        <v>900.4633898252298</v>
+        <v>954.56199835287</v>
       </c>
       <c r="U37" t="n">
-        <v>611.303954839161</v>
+        <v>954.56199835287</v>
       </c>
       <c r="V37" t="n">
-        <v>356.6194666332741</v>
+        <v>954.56199835287</v>
       </c>
       <c r="W37" t="n">
-        <v>67.2022965963135</v>
+        <v>954.56199835287</v>
       </c>
       <c r="X37" t="n">
-        <v>67.2022965963135</v>
+        <v>936.4129922381527</v>
       </c>
       <c r="Y37" t="n">
-        <v>67.2022965963135</v>
+        <v>715.6204130946226</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1412.491045478347</v>
+        <v>1774.583796172308</v>
       </c>
       <c r="C38" t="n">
-        <v>1412.491045478347</v>
+        <v>1405.621279231897</v>
       </c>
       <c r="D38" t="n">
-        <v>1412.491045478347</v>
+        <v>1047.355580625146</v>
       </c>
       <c r="E38" t="n">
         <v>1026.702792880102</v>
@@ -7174,10 +7174,10 @@
         <v>67.2022965963135</v>
       </c>
       <c r="J38" t="n">
-        <v>231.1641949821401</v>
+        <v>231.1641949821403</v>
       </c>
       <c r="K38" t="n">
-        <v>597.6453821726748</v>
+        <v>597.6453821726749</v>
       </c>
       <c r="L38" t="n">
         <v>1104.574328908085</v>
@@ -7201,25 +7201,25 @@
         <v>3341.479452221463</v>
       </c>
       <c r="S38" t="n">
-        <v>3341.479452221463</v>
+        <v>3178.504162921533</v>
       </c>
       <c r="T38" t="n">
-        <v>3125.380939814887</v>
+        <v>3178.504162921533</v>
       </c>
       <c r="U38" t="n">
-        <v>3125.380939814887</v>
+        <v>2924.788726473322</v>
       </c>
       <c r="V38" t="n">
-        <v>2794.318052471317</v>
+        <v>2924.788726473322</v>
       </c>
       <c r="W38" t="n">
-        <v>2562.69597577936</v>
+        <v>2924.788726473322</v>
       </c>
       <c r="X38" t="n">
-        <v>2189.23021751828</v>
+        <v>2551.322968212242</v>
       </c>
       <c r="Y38" t="n">
-        <v>1799.090885542468</v>
+        <v>2161.18363623643</v>
       </c>
     </row>
     <row r="39">
@@ -7256,22 +7256,22 @@
         <v>67.2022965963135</v>
       </c>
       <c r="K39" t="n">
-        <v>109.688810964315</v>
+        <v>371.5093956067677</v>
       </c>
       <c r="L39" t="n">
-        <v>526.7256998860481</v>
+        <v>842.092240341654</v>
       </c>
       <c r="M39" t="n">
-        <v>1127.852905373125</v>
+        <v>1394.425341114752</v>
       </c>
       <c r="N39" t="n">
-        <v>1760.597172667077</v>
+        <v>1552.620657808586</v>
       </c>
       <c r="O39" t="n">
-        <v>2273.018882363463</v>
+        <v>2065.042367504972</v>
       </c>
       <c r="P39" t="n">
-        <v>2667.279412613341</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q39" t="n">
         <v>2670.157851783212</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.942215269654</v>
+        <v>214.0922440942239</v>
       </c>
       <c r="C40" t="n">
-        <v>235.942215269654</v>
+        <v>214.0922440942239</v>
       </c>
       <c r="D40" t="n">
-        <v>235.942215269654</v>
+        <v>214.0922440942239</v>
       </c>
       <c r="E40" t="n">
-        <v>235.942215269654</v>
+        <v>214.0922440942239</v>
       </c>
       <c r="F40" t="n">
-        <v>235.942215269654</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="G40" t="n">
         <v>67.2022965963135</v>
@@ -7356,28 +7356,28 @@
         <v>954.56199835287</v>
       </c>
       <c r="R40" t="n">
-        <v>818.1005610221964</v>
+        <v>954.56199835287</v>
       </c>
       <c r="S40" t="n">
-        <v>818.1005610221964</v>
+        <v>954.56199835287</v>
       </c>
       <c r="T40" t="n">
-        <v>818.1005610221964</v>
+        <v>954.56199835287</v>
       </c>
       <c r="U40" t="n">
-        <v>818.1005610221964</v>
+        <v>665.4025633668011</v>
       </c>
       <c r="V40" t="n">
-        <v>563.4160728163096</v>
+        <v>503.5094141311845</v>
       </c>
       <c r="W40" t="n">
-        <v>273.998902779349</v>
+        <v>214.0922440942239</v>
       </c>
       <c r="X40" t="n">
-        <v>273.998902779349</v>
+        <v>214.0922440942239</v>
       </c>
       <c r="Y40" t="n">
-        <v>235.942215269654</v>
+        <v>214.0922440942239</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1037.629030451978</v>
+        <v>2102.714897227754</v>
       </c>
       <c r="C41" t="n">
-        <v>668.6665135115661</v>
+        <v>1733.752380287342</v>
       </c>
       <c r="D41" t="n">
-        <v>484.5867432769133</v>
+        <v>1733.752380287342</v>
       </c>
       <c r="E41" t="n">
-        <v>484.5867432769133</v>
+        <v>1347.964127689098</v>
       </c>
       <c r="F41" t="n">
-        <v>484.5867432769133</v>
+        <v>936.9782228994906</v>
       </c>
       <c r="G41" t="n">
-        <v>67.2022965963135</v>
+        <v>519.5937762188908</v>
       </c>
       <c r="H41" t="n">
-        <v>67.2022965963135</v>
+        <v>198.3324414098951</v>
       </c>
       <c r="I41" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J41" t="n">
-        <v>231.1641949821403</v>
+        <v>231.1641949821405</v>
       </c>
       <c r="K41" t="n">
-        <v>597.645382172675</v>
+        <v>597.6453821726755</v>
       </c>
       <c r="L41" t="n">
-        <v>1104.574328908085</v>
+        <v>1104.574328908086</v>
       </c>
       <c r="M41" t="n">
         <v>1685.237002375317</v>
@@ -7429,7 +7429,7 @@
         <v>2758.834606696547</v>
       </c>
       <c r="P41" t="n">
-        <v>3146.337816775582</v>
+        <v>3146.337816775583</v>
       </c>
       <c r="Q41" t="n">
         <v>3360.114829815675</v>
@@ -7441,22 +7441,22 @@
         <v>3341.479452221463</v>
       </c>
       <c r="T41" t="n">
-        <v>3125.380939814887</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="U41" t="n">
-        <v>2871.665503366676</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="V41" t="n">
-        <v>2540.602616023105</v>
+        <v>3010.416564877893</v>
       </c>
       <c r="W41" t="n">
-        <v>2187.833960752991</v>
+        <v>3010.416564877893</v>
       </c>
       <c r="X41" t="n">
-        <v>1814.368202491911</v>
+        <v>2879.454069267688</v>
       </c>
       <c r="Y41" t="n">
-        <v>1424.2288705161</v>
+        <v>2489.314737291876</v>
       </c>
     </row>
     <row r="42">
@@ -7481,34 +7481,34 @@
         <v>358.6212903526892</v>
       </c>
       <c r="G42" t="n">
-        <v>221.0211629876734</v>
+        <v>221.0211629876735</v>
       </c>
       <c r="H42" t="n">
-        <v>118.572190164182</v>
+        <v>118.5721901641821</v>
       </c>
       <c r="I42" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J42" t="n">
-        <v>171.1635003404554</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="K42" t="n">
-        <v>475.4705993509097</v>
+        <v>109.688810964315</v>
       </c>
       <c r="L42" t="n">
-        <v>946.0534440857959</v>
+        <v>580.2716556992012</v>
       </c>
       <c r="M42" t="n">
-        <v>1086.132636460373</v>
+        <v>1181.398861186278</v>
       </c>
       <c r="N42" t="n">
-        <v>1552.620657808586</v>
+        <v>1814.14312848023</v>
       </c>
       <c r="O42" t="n">
-        <v>2065.042367504972</v>
+        <v>2326.564838176616</v>
       </c>
       <c r="P42" t="n">
-        <v>2459.30289775485</v>
+        <v>2667.279412613341</v>
       </c>
       <c r="Q42" t="n">
         <v>2670.157851783212</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>67.2022965963135</v>
+        <v>512.1219770889527</v>
       </c>
       <c r="C43" t="n">
-        <v>67.2022965963135</v>
+        <v>512.1219770889527</v>
       </c>
       <c r="D43" t="n">
-        <v>67.2022965963135</v>
+        <v>362.005337676617</v>
       </c>
       <c r="E43" t="n">
-        <v>67.2022965963135</v>
+        <v>214.0922440942239</v>
       </c>
       <c r="F43" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="G43" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H43" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I43" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J43" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="K43" t="n">
         <v>153.097154149067</v>
@@ -7602,19 +7602,19 @@
         <v>954.56199835287</v>
       </c>
       <c r="U43" t="n">
-        <v>839.2935057371783</v>
+        <v>954.56199835287</v>
       </c>
       <c r="V43" t="n">
-        <v>584.6090175312914</v>
+        <v>954.56199835287</v>
       </c>
       <c r="W43" t="n">
-        <v>295.1918474943308</v>
+        <v>954.56199835287</v>
       </c>
       <c r="X43" t="n">
-        <v>67.2022965963135</v>
+        <v>914.5630210627226</v>
       </c>
       <c r="Y43" t="n">
-        <v>67.2022965963135</v>
+        <v>693.7704419191924</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1364.069115738159</v>
+        <v>1482.853389413915</v>
       </c>
       <c r="C44" t="n">
-        <v>995.106598797747</v>
+        <v>1482.853389413915</v>
       </c>
       <c r="D44" t="n">
-        <v>995.106598797747</v>
+        <v>1124.587690807165</v>
       </c>
       <c r="E44" t="n">
-        <v>609.3183461995027</v>
+        <v>1124.587690807165</v>
       </c>
       <c r="F44" t="n">
-        <v>198.3324414098951</v>
+        <v>936.9782228994906</v>
       </c>
       <c r="G44" t="n">
-        <v>198.3324414098951</v>
+        <v>519.5937762188908</v>
       </c>
       <c r="H44" t="n">
         <v>198.3324414098951</v>
@@ -7648,7 +7648,7 @@
         <v>67.2022965963135</v>
       </c>
       <c r="J44" t="n">
-        <v>231.1641949821404</v>
+        <v>231.1641949821403</v>
       </c>
       <c r="K44" t="n">
         <v>597.645382172675</v>
@@ -7672,28 +7672,28 @@
         <v>3360.114829815675</v>
       </c>
       <c r="R44" t="n">
-        <v>3341.479452221463</v>
+        <v>3360.114829815675</v>
       </c>
       <c r="S44" t="n">
-        <v>3336.856650164073</v>
+        <v>3197.139540515745</v>
       </c>
       <c r="T44" t="n">
-        <v>3120.758137757497</v>
+        <v>3197.139540515745</v>
       </c>
       <c r="U44" t="n">
-        <v>2867.042701309286</v>
+        <v>2943.424104067534</v>
       </c>
       <c r="V44" t="n">
-        <v>2867.042701309286</v>
+        <v>2612.361216723963</v>
       </c>
       <c r="W44" t="n">
-        <v>2514.274046039172</v>
+        <v>2259.592561453849</v>
       </c>
       <c r="X44" t="n">
-        <v>2140.808287778092</v>
+        <v>2259.592561453849</v>
       </c>
       <c r="Y44" t="n">
-        <v>1750.66895580228</v>
+        <v>1869.453229478037</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>67.2022965963135</v>
       </c>
       <c r="J45" t="n">
-        <v>171.1635003404554</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="K45" t="n">
-        <v>475.4705993509097</v>
+        <v>109.688810964315</v>
       </c>
       <c r="L45" t="n">
-        <v>946.0534440857959</v>
+        <v>526.7256998860481</v>
       </c>
       <c r="M45" t="n">
-        <v>1394.425341114752</v>
+        <v>1127.852905373125</v>
       </c>
       <c r="N45" t="n">
-        <v>1552.620657808586</v>
+        <v>1760.597172667077</v>
       </c>
       <c r="O45" t="n">
-        <v>2065.042367504972</v>
+        <v>2273.018882363463</v>
       </c>
       <c r="P45" t="n">
-        <v>2459.30289775485</v>
+        <v>2667.279412613341</v>
       </c>
       <c r="Q45" t="n">
         <v>2670.157851783212</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>364.2088835065596</v>
+        <v>121.3009051239537</v>
       </c>
       <c r="C46" t="n">
-        <v>364.2088835065596</v>
+        <v>121.3009051239537</v>
       </c>
       <c r="D46" t="n">
-        <v>214.0922440942239</v>
+        <v>121.3009051239537</v>
       </c>
       <c r="E46" t="n">
-        <v>214.0922440942239</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="F46" t="n">
         <v>67.2022965963135</v>
@@ -7839,19 +7839,19 @@
         <v>954.56199835287</v>
       </c>
       <c r="U46" t="n">
-        <v>954.56199835287</v>
+        <v>665.4025633668011</v>
       </c>
       <c r="V46" t="n">
-        <v>699.8775101469831</v>
+        <v>410.7180751609143</v>
       </c>
       <c r="W46" t="n">
-        <v>410.4603401100225</v>
+        <v>121.3009051239537</v>
       </c>
       <c r="X46" t="n">
-        <v>364.2088835065596</v>
+        <v>121.3009051239537</v>
       </c>
       <c r="Y46" t="n">
-        <v>364.2088835065596</v>
+        <v>121.3009051239537</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9014,7 +9014,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>21.07971842713417</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9725,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>311.4067723781612</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>75.31025821046111</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>21.07971842713417</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9962,13 +9962,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>311.4067723781612</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>344.5753448181654</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627455</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>21.07971842713417</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10199,10 +10199,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>416.4180892914359</v>
       </c>
       <c r="N30" t="n">
-        <v>311.4067723781612</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>21.07971842713417</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10436,19 +10436,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>311.4067723781612</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>75.31025821046121</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>21.07971842713417</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10673,7 +10673,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>311.4067723781612</v>
+        <v>416.4180892914359</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10904,16 +10904,16 @@
         <v>21.07971842713417</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>316.7535212497692</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>416.4180892914359</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>21.07971842713417</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>311.4067723781612</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>264.3759445862468</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11311,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.800181262745</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11375,19 +11375,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>21.07971842713417</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>316.7535212497692</v>
       </c>
       <c r="M45" t="n">
-        <v>311.4067723781612</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23305,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>49.11500274754027</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>109.962994947915</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23439,7 +23439,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23472,7 +23472,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>157.4983735401876</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>189.1287371935168</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>60.58637043937642</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23658,16 +23658,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>156.1708888417951</v>
@@ -23676,7 +23676,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23709,16 +23709,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>157.4983735401874</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>19.61183632702262</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>75.9205090589528</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23746,10 +23746,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>44.49115460673193</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>167.3098022590509</v>
@@ -23910,7 +23910,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>45.19995918853699</v>
@@ -23943,10 +23943,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>124.5006312477356</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>131.0703856053966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>225.5444320507722</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
@@ -23989,7 +23989,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,19 +24025,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>245.8641363662932</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24180,19 +24180,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>275.842460843618</v>
+        <v>24.37936745074296</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>58.06638253789203</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>129.8188433654458</v>
+        <v>76.73449290709074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>18.44902381826981</v>
       </c>
       <c r="S23" t="n">
         <v>161.3455364069306</v>
       </c>
       <c r="T23" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.1782820837292</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>153.8834111013403</v>
@@ -24417,19 +24417,19 @@
         <v>207.661801906612</v>
       </c>
       <c r="T25" t="n">
-        <v>223.9358063394608</v>
+        <v>85.29306005987604</v>
       </c>
       <c r="U25" t="n">
-        <v>172.1520329466733</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24445,19 +24445,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>215.6333437856279</v>
       </c>
       <c r="E26" t="n">
-        <v>103.5240953910748</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>318.0487214609057</v>
@@ -24496,13 +24496,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>37.25917780765241</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24654,7 +24654,7 @@
         <v>207.661801906612</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>176.5681384172793</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>408.0821608208594</v>
+        <v>141.4516339154277</v>
       </c>
       <c r="H29" t="n">
         <v>318.0487214609057</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>223.9358063394608</v>
       </c>
       <c r="U31" t="n">
-        <v>165.027030909731</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>172.1520329466734</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24919,10 +24919,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>222.0759171362006</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>129.8188433654458</v>
@@ -24964,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>18.44902381826981</v>
       </c>
       <c r="S32" t="n">
-        <v>161.3455364069306</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>213.9375272825098</v>
@@ -24976,13 +24976,13 @@
         <v>251.1782820837292</v>
       </c>
       <c r="V32" t="n">
-        <v>82.92407332231693</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25122,16 +25122,16 @@
         <v>7.578826164188825</v>
       </c>
       <c r="R34" t="n">
-        <v>135.0968229573668</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>207.661801906612</v>
       </c>
       <c r="T34" t="n">
-        <v>30.38933347109293</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>47.98621054326989</v>
       </c>
     </row>
     <row r="35">
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H35" t="n">
         <v>318.0487214609057</v>
@@ -25207,19 +25207,19 @@
         <v>161.3455364069306</v>
       </c>
       <c r="T35" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>141.4516339154279</v>
+        <v>178.3087820100872</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>153.8834111013403</v>
@@ -25365,22 +25365,22 @@
         <v>207.661801906612</v>
       </c>
       <c r="T37" t="n">
-        <v>170.378183897097</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>207.742139335467</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,13 +25393,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>361.4841102046682</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>161.3455364069306</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>119.9351127923762</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25560,10 +25560,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H40" t="n">
         <v>153.8834111013403</v>
@@ -25596,7 +25596,7 @@
         <v>7.578826164188825</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>135.0968229573668</v>
       </c>
       <c r="S40" t="n">
         <v>207.661801906612</v>
@@ -25605,10 +25605,10 @@
         <v>223.9358063394608</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>91.86342558056754</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>180.9085327174968</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25633,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>172.4440690883767</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>129.8188433654458</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>161.3455364069306</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>240.0782300243663</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.0525194866071</v>
@@ -25842,19 +25842,19 @@
         <v>223.9358063394608</v>
       </c>
       <c r="U43" t="n">
-        <v>172.1520329466733</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>186.1106678717912</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>221.142672513114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25912,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>18.44902381826981</v>
       </c>
       <c r="S44" t="n">
-        <v>156.7689623701147</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>92.87634020420541</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.0525194866071</v>
@@ -26079,7 +26079,7 @@
         <v>223.9358063394608</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>179.9207133516088</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>714940.2716782376</v>
+        <v>714940.2716782378</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>714940.2716782378</v>
+        <v>714940.2716782377</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>714940.2716782377</v>
+        <v>714940.2716782378</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>788267.9409451165</v>
+        <v>788267.9409451166</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>788267.9409451165</v>
+        <v>788267.9409451167</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>788267.9409451166</v>
+        <v>788267.9409451165</v>
       </c>
     </row>
     <row r="15">
@@ -26316,10 +26316,10 @@
         <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
         <v>332525.5015181212</v>
@@ -26328,19 +26328,19 @@
         <v>332525.5015181212</v>
       </c>
       <c r="G2" t="n">
-        <v>332525.5015181215</v>
+        <v>332525.5015181213</v>
       </c>
       <c r="H2" t="n">
         <v>332525.5015181212</v>
       </c>
       <c r="I2" t="n">
-        <v>369476.1749156272</v>
+        <v>369476.1749156271</v>
       </c>
       <c r="J2" t="n">
         <v>369476.1749156272</v>
       </c>
       <c r="K2" t="n">
-        <v>369476.1749156272</v>
+        <v>369476.1749156271</v>
       </c>
       <c r="L2" t="n">
         <v>369476.1749156272</v>
@@ -26349,7 +26349,7 @@
         <v>369476.1749156272</v>
       </c>
       <c r="N2" t="n">
-        <v>369476.1749156271</v>
+        <v>369476.1749156272</v>
       </c>
       <c r="O2" t="n">
         <v>369476.1749156271</v>
@@ -26438,7 +26438,7 @@
         <v>35944.74664026682</v>
       </c>
       <c r="I4" t="n">
-        <v>33848.0426049218</v>
+        <v>33848.04260492179</v>
       </c>
       <c r="J4" t="n">
         <v>33848.0426049218</v>
@@ -26447,7 +26447,7 @@
         <v>33848.0426049218</v>
       </c>
       <c r="L4" t="n">
-        <v>33848.0426049218</v>
+        <v>33848.04260492179</v>
       </c>
       <c r="M4" t="n">
         <v>33848.0426049218</v>
@@ -26456,7 +26456,7 @@
         <v>33848.0426049218</v>
       </c>
       <c r="O4" t="n">
-        <v>33848.0426049218</v>
+        <v>33848.04260492179</v>
       </c>
       <c r="P4" t="n">
         <v>33848.0426049218</v>
@@ -26493,7 +26493,7 @@
         <v>62418.87211854674</v>
       </c>
       <c r="J5" t="n">
-        <v>62418.87211854674</v>
+        <v>62418.87211854675</v>
       </c>
       <c r="K5" t="n">
         <v>62418.87211854675</v>
@@ -26508,7 +26508,7 @@
         <v>62418.87211854674</v>
       </c>
       <c r="O5" t="n">
-        <v>62418.87211854674</v>
+        <v>62418.87211854675</v>
       </c>
       <c r="P5" t="n">
         <v>62418.87211854674</v>
@@ -26524,46 +26524,46 @@
         <v>-375218.7169278171</v>
       </c>
       <c r="C6" t="n">
-        <v>214749.1622867274</v>
+        <v>214749.1622867272</v>
       </c>
       <c r="D6" t="n">
         <v>214749.1622867273</v>
       </c>
       <c r="E6" t="n">
-        <v>241280.8630686257</v>
+        <v>246742.435439863</v>
       </c>
       <c r="F6" t="n">
-        <v>241280.8630686257</v>
+        <v>246742.435439863</v>
       </c>
       <c r="G6" t="n">
-        <v>241280.8630686261</v>
+        <v>246742.4354398631</v>
       </c>
       <c r="H6" t="n">
-        <v>241280.8630686257</v>
+        <v>246742.435439863</v>
       </c>
       <c r="I6" t="n">
-        <v>117274.8118602786</v>
+        <v>121290.4883159612</v>
       </c>
       <c r="J6" t="n">
-        <v>92324.17827102941</v>
+        <v>96339.85472671204</v>
       </c>
       <c r="K6" t="n">
-        <v>268747.3974636223</v>
+        <v>272763.0739193049</v>
       </c>
       <c r="L6" t="n">
-        <v>268747.3974636223</v>
+        <v>272763.073919305</v>
       </c>
       <c r="M6" t="n">
-        <v>268747.3974636223</v>
+        <v>272763.0739193051</v>
       </c>
       <c r="N6" t="n">
-        <v>268747.3974636222</v>
+        <v>272763.0739193051</v>
       </c>
       <c r="O6" t="n">
-        <v>268747.3974636222</v>
+        <v>272763.0739193049</v>
       </c>
       <c r="P6" t="n">
-        <v>268747.3974636223</v>
+        <v>272763.073919305</v>
       </c>
     </row>
   </sheetData>
@@ -26743,13 +26743,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="E3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="F3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170867</v>
@@ -26792,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26813,7 +26813,7 @@
         <v>840.0287074539187</v>
       </c>
       <c r="J4" t="n">
-        <v>840.0287074539187</v>
+        <v>840.0287074539189</v>
       </c>
       <c r="K4" t="n">
         <v>840.0287074539189</v>
@@ -26828,7 +26828,7 @@
         <v>840.0287074539187</v>
       </c>
       <c r="O4" t="n">
-        <v>840.0287074539187</v>
+        <v>840.0287074539189</v>
       </c>
       <c r="P4" t="n">
         <v>840.0287074539187</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>103.176572348167</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27432,22 +27432,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>122.9862186766245</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>148.5363980421334</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,10 +27624,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>264.0387179909509</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>73.48992809149587</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>136.7057146380968</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>63.37316471551392</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>53.58012876371532</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>204.8489619230169</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>136.7057146380965</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>120.50172456543</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31758,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31785,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31858,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31934,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31995,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32022,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32095,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32171,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35500,16 +35500,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35734,19 +35734,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35974,7 +35974,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
@@ -35983,7 +35983,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36211,7 +36211,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
@@ -36220,7 +36220,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>105.0113169132747</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>307.3809080913679</v>
@@ -36445,19 +36445,19 @@
         <v>475.3362068029155</v>
       </c>
       <c r="M24" t="n">
-        <v>452.900906089855</v>
+        <v>607.1991974616938</v>
       </c>
       <c r="N24" t="n">
-        <v>159.7932491856904</v>
+        <v>639.135623529244</v>
       </c>
       <c r="O24" t="n">
-        <v>517.5976865620061</v>
+        <v>199.0456254957377</v>
       </c>
       <c r="P24" t="n">
         <v>398.242959848362</v>
       </c>
       <c r="Q24" t="n">
-        <v>212.9848020488506</v>
+        <v>2.907514313001485</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>105.0113169132747</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>307.3809080913679</v>
@@ -36682,13 +36682,13 @@
         <v>475.3362068029155</v>
       </c>
       <c r="M27" t="n">
-        <v>452.900906089855</v>
+        <v>607.1991974616938</v>
       </c>
       <c r="N27" t="n">
         <v>159.7932491856904</v>
       </c>
       <c r="O27" t="n">
-        <v>517.5976865620061</v>
+        <v>468.310712103442</v>
       </c>
       <c r="P27" t="n">
         <v>398.242959848362</v>
@@ -36846,7 +36846,7 @@
         <v>581.2387929719732</v>
       </c>
       <c r="O29" t="n">
-        <v>503.203231594926</v>
+        <v>503.2032315949262</v>
       </c>
       <c r="P29" t="n">
         <v>391.4173839182174</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>105.0113169132747</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>307.3809080913679</v>
@@ -36919,10 +36919,10 @@
         <v>475.3362068029155</v>
       </c>
       <c r="M30" t="n">
-        <v>141.4941337116938</v>
+        <v>557.9122230031297</v>
       </c>
       <c r="N30" t="n">
-        <v>471.2000215638516</v>
+        <v>159.7932491856904</v>
       </c>
       <c r="O30" t="n">
         <v>517.5976865620061</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>105.0113169132747</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>307.3809080913679</v>
@@ -37156,19 +37156,19 @@
         <v>475.3362068029155</v>
       </c>
       <c r="M33" t="n">
-        <v>141.4941337116938</v>
+        <v>607.1991974616938</v>
       </c>
       <c r="N33" t="n">
-        <v>471.2000215638516</v>
+        <v>639.135623529244</v>
       </c>
       <c r="O33" t="n">
-        <v>517.5976865620061</v>
+        <v>123.7353672852765</v>
       </c>
       <c r="P33" t="n">
         <v>398.242959848362</v>
       </c>
       <c r="Q33" t="n">
-        <v>212.9848020488506</v>
+        <v>78.2177725234627</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>105.0113169132747</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>307.3809080913679</v>
@@ -37393,7 +37393,7 @@
         <v>475.3362068029155</v>
       </c>
       <c r="M36" t="n">
-        <v>452.900906089855</v>
+        <v>557.9122230031297</v>
       </c>
       <c r="N36" t="n">
         <v>159.7932491856904</v>
@@ -37624,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>42.91567107878936</v>
+        <v>307.3809080913679</v>
       </c>
       <c r="L39" t="n">
-        <v>421.2493827492254</v>
+        <v>475.3362068029155</v>
       </c>
       <c r="M39" t="n">
-        <v>607.1991974616938</v>
+        <v>557.9122230031297</v>
       </c>
       <c r="N39" t="n">
-        <v>639.135623529244</v>
+        <v>159.7932491856904</v>
       </c>
       <c r="O39" t="n">
         <v>517.5976865620061</v>
@@ -37642,7 +37642,7 @@
         <v>398.242959848362</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.907514313001485</v>
+        <v>212.9848020488506</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>105.0113169132747</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>307.3809080913679</v>
+        <v>42.91567107878936</v>
       </c>
       <c r="L42" t="n">
         <v>475.3362068029155</v>
       </c>
       <c r="M42" t="n">
-        <v>141.4941337116938</v>
+        <v>607.1991974616938</v>
       </c>
       <c r="N42" t="n">
-        <v>471.2000215638516</v>
+        <v>639.135623529244</v>
       </c>
       <c r="O42" t="n">
         <v>517.5976865620061</v>
       </c>
       <c r="P42" t="n">
-        <v>398.242959848362</v>
+        <v>344.1561357946716</v>
       </c>
       <c r="Q42" t="n">
-        <v>212.9848020488506</v>
+        <v>2.907514313001485</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38031,7 +38031,7 @@
         <v>581.2387929719732</v>
       </c>
       <c r="O44" t="n">
-        <v>503.2032315949257</v>
+        <v>503.203231594926</v>
       </c>
       <c r="P44" t="n">
         <v>391.4173839182174</v>
@@ -38095,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>105.0113169132747</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>307.3809080913679</v>
+        <v>42.91567107878936</v>
       </c>
       <c r="L45" t="n">
-        <v>475.3362068029155</v>
+        <v>421.2493827492254</v>
       </c>
       <c r="M45" t="n">
-        <v>452.900906089855</v>
+        <v>607.1991974616938</v>
       </c>
       <c r="N45" t="n">
-        <v>159.7932491856904</v>
+        <v>639.135623529244</v>
       </c>
       <c r="O45" t="n">
         <v>517.5976865620061</v>
@@ -38116,7 +38116,7 @@
         <v>398.242959848362</v>
       </c>
       <c r="Q45" t="n">
-        <v>212.9848020488506</v>
+        <v>2.907514313001485</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
